--- a/Documents/SIQ.0.1.xlsx
+++ b/Documents/SIQ.0.1.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI\GitHub Embedded\DDM\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="116">
   <si>
     <t>ID</t>
   </si>
@@ -360,43 +368,51 @@
   </si>
   <si>
     <t>I have answered to this question before, and I said that It depends on used sensor; refer to technical team</t>
+  </si>
+  <si>
+    <t>testtt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d-yyyy"/>
+    <numFmt numFmtId="164" formatCode="m\-d\-yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -436,97 +452,368 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="46.57"/>
-    <col customWidth="1" min="3" max="3" width="35.43"/>
-    <col customWidth="1" min="4" max="4" width="21.43"/>
-    <col customWidth="1" min="5" max="5" width="19.57"/>
-    <col customWidth="1" min="6" max="6" width="22.71"/>
-    <col customWidth="1" min="7" max="7" width="20.0"/>
-    <col customWidth="1" min="8" max="8" width="19.0"/>
-    <col customWidth="1" min="9" max="9" width="74.14"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="74.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48.0" customHeight="1">
+    <row r="1" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +859,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" ht="51.75" customHeight="1">
+    <row r="2" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -599,7 +886,7 @@
       </c>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" ht="55.5" customHeight="1">
+    <row r="3" spans="1:26" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -626,7 +913,7 @@
       </c>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" ht="48.0" customHeight="1">
+    <row r="4" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -655,7 +942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" ht="48.0" customHeight="1">
+    <row r="5" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -684,7 +971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" ht="48.0" customHeight="1">
+    <row r="6" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -713,7 +1000,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" ht="48.0" customHeight="1">
+    <row r="7" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
@@ -740,7 +1027,7 @@
       </c>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" ht="48.0" customHeight="1">
+    <row r="8" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
@@ -769,7 +1056,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" ht="48.0" customHeight="1">
+    <row r="9" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -796,7 +1083,7 @@
       </c>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" ht="48.0" customHeight="1">
+    <row r="10" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>47</v>
       </c>
@@ -825,7 +1112,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" ht="48.0" customHeight="1">
+    <row r="11" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>51</v>
       </c>
@@ -854,7 +1141,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" ht="48.0" customHeight="1">
+    <row r="12" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>55</v>
       </c>
@@ -881,7 +1168,7 @@
       </c>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" ht="48.0" customHeight="1">
+    <row r="13" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>58</v>
       </c>
@@ -908,7 +1195,7 @@
       </c>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" ht="48.0" customHeight="1">
+    <row r="14" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>61</v>
       </c>
@@ -937,7 +1224,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" ht="48.0" customHeight="1">
+    <row r="15" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>65</v>
       </c>
@@ -966,7 +1253,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" ht="48.0" customHeight="1">
+    <row r="16" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>68</v>
       </c>
@@ -995,7 +1282,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" ht="48.0" customHeight="1">
+    <row r="17" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>72</v>
       </c>
@@ -1024,7 +1311,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" ht="48.0" customHeight="1">
+    <row r="18" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>77</v>
       </c>
@@ -1053,7 +1340,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" ht="48.0" customHeight="1">
+    <row r="19" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>81</v>
       </c>
@@ -1082,7 +1369,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" ht="48.0" customHeight="1">
+    <row r="20" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>85</v>
       </c>
@@ -1111,7 +1398,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" ht="48.0" customHeight="1">
+    <row r="21" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>89</v>
       </c>
@@ -1140,7 +1427,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" ht="48.0" customHeight="1">
+    <row r="22" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>93</v>
       </c>
@@ -1169,7 +1456,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" ht="48.0" customHeight="1">
+    <row r="23" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>97</v>
       </c>
@@ -1187,7 +1474,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="15">
-        <v>43135.0</v>
+        <v>43135</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="4" t="s">
@@ -1211,7 +1498,7 @@
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
     </row>
-    <row r="24" ht="48.0" customHeight="1">
+    <row r="24" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>102</v>
       </c>
@@ -1229,7 +1516,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="15">
-        <v>43135.0</v>
+        <v>43135</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="4" t="s">
@@ -1253,7 +1540,7 @@
       <c r="Y24" s="16"/>
       <c r="Z24" s="16"/>
     </row>
-    <row r="25" ht="46.5" customHeight="1">
+    <row r="25" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>105</v>
       </c>
@@ -1270,13 +1557,13 @@
         <v>20</v>
       </c>
       <c r="G25" s="15">
-        <v>43135.0</v>
+        <v>43135</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>108</v>
       </c>
@@ -1293,13 +1580,13 @@
         <v>110</v>
       </c>
       <c r="G26" s="18">
-        <v>43163.0</v>
+        <v>43163</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>112</v>
       </c>
@@ -1316,2932 +1603,2935 @@
         <v>110</v>
       </c>
       <c r="G27" s="18">
-        <v>43194.0</v>
+        <v>43194</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I28" s="11"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="I29" s="11"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I30" s="11"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I31" s="11"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I32" s="11"/>
     </row>
-    <row r="33">
+    <row r="33" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I33" s="11"/>
     </row>
-    <row r="34">
+    <row r="34" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I34" s="11"/>
     </row>
-    <row r="35">
+    <row r="35" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I35" s="11"/>
     </row>
-    <row r="36">
+    <row r="36" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I36" s="11"/>
     </row>
-    <row r="37">
+    <row r="37" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I37" s="11"/>
     </row>
-    <row r="38">
+    <row r="38" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I38" s="11"/>
     </row>
-    <row r="39">
+    <row r="39" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I39" s="11"/>
     </row>
-    <row r="40">
+    <row r="40" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I40" s="11"/>
     </row>
-    <row r="41">
+    <row r="41" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I41" s="11"/>
     </row>
-    <row r="42">
+    <row r="42" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I42" s="11"/>
     </row>
-    <row r="43">
+    <row r="43" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I43" s="11"/>
     </row>
-    <row r="44">
+    <row r="44" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I44" s="11"/>
     </row>
-    <row r="45">
+    <row r="45" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I45" s="11"/>
     </row>
-    <row r="46">
+    <row r="46" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I46" s="11"/>
     </row>
-    <row r="47">
+    <row r="47" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I47" s="11"/>
     </row>
-    <row r="48">
+    <row r="48" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I48" s="11"/>
     </row>
-    <row r="49">
+    <row r="49" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I49" s="11"/>
     </row>
-    <row r="50">
+    <row r="50" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I50" s="11"/>
     </row>
-    <row r="51">
+    <row r="51" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I51" s="11"/>
     </row>
-    <row r="52">
+    <row r="52" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I52" s="11"/>
     </row>
-    <row r="53">
+    <row r="53" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I53" s="11"/>
     </row>
-    <row r="54">
+    <row r="54" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I54" s="11"/>
     </row>
-    <row r="55">
+    <row r="55" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I55" s="11"/>
     </row>
-    <row r="56">
+    <row r="56" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I56" s="11"/>
     </row>
-    <row r="57">
+    <row r="57" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I57" s="11"/>
     </row>
-    <row r="58">
+    <row r="58" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I58" s="11"/>
     </row>
-    <row r="59">
+    <row r="59" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I59" s="11"/>
     </row>
-    <row r="60">
+    <row r="60" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I60" s="11"/>
     </row>
-    <row r="61">
+    <row r="61" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I61" s="11"/>
     </row>
-    <row r="62">
+    <row r="62" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I62" s="11"/>
     </row>
-    <row r="63">
+    <row r="63" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I63" s="11"/>
     </row>
-    <row r="64">
+    <row r="64" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I64" s="11"/>
     </row>
-    <row r="65">
+    <row r="65" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I65" s="11"/>
     </row>
-    <row r="66">
+    <row r="66" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I66" s="11"/>
     </row>
-    <row r="67">
+    <row r="67" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I67" s="11"/>
     </row>
-    <row r="68">
+    <row r="68" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I68" s="11"/>
     </row>
-    <row r="69">
+    <row r="69" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I69" s="11"/>
     </row>
-    <row r="70">
+    <row r="70" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I70" s="11"/>
     </row>
-    <row r="71">
+    <row r="71" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I71" s="11"/>
     </row>
-    <row r="72">
+    <row r="72" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I72" s="11"/>
     </row>
-    <row r="73">
+    <row r="73" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I73" s="11"/>
     </row>
-    <row r="74">
+    <row r="74" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I74" s="11"/>
     </row>
-    <row r="75">
+    <row r="75" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I75" s="11"/>
     </row>
-    <row r="76">
+    <row r="76" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I76" s="11"/>
     </row>
-    <row r="77">
+    <row r="77" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I77" s="11"/>
     </row>
-    <row r="78">
+    <row r="78" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I78" s="11"/>
     </row>
-    <row r="79">
+    <row r="79" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I79" s="11"/>
     </row>
-    <row r="80">
+    <row r="80" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I80" s="11"/>
     </row>
-    <row r="81">
+    <row r="81" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I81" s="11"/>
     </row>
-    <row r="82">
+    <row r="82" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I82" s="11"/>
     </row>
-    <row r="83">
+    <row r="83" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I83" s="11"/>
     </row>
-    <row r="84">
+    <row r="84" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I84" s="11"/>
     </row>
-    <row r="85">
+    <row r="85" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I85" s="11"/>
     </row>
-    <row r="86">
+    <row r="86" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I86" s="11"/>
     </row>
-    <row r="87">
+    <row r="87" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I87" s="11"/>
     </row>
-    <row r="88">
+    <row r="88" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I88" s="11"/>
     </row>
-    <row r="89">
+    <row r="89" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I89" s="11"/>
     </row>
-    <row r="90">
+    <row r="90" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I90" s="11"/>
     </row>
-    <row r="91">
+    <row r="91" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I91" s="11"/>
     </row>
-    <row r="92">
+    <row r="92" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I92" s="11"/>
     </row>
-    <row r="93">
+    <row r="93" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I93" s="11"/>
     </row>
-    <row r="94">
+    <row r="94" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I94" s="11"/>
     </row>
-    <row r="95">
+    <row r="95" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I95" s="11"/>
     </row>
-    <row r="96">
+    <row r="96" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I96" s="11"/>
     </row>
-    <row r="97">
+    <row r="97" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I97" s="11"/>
     </row>
-    <row r="98">
+    <row r="98" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I98" s="11"/>
     </row>
-    <row r="99">
+    <row r="99" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I99" s="11"/>
     </row>
-    <row r="100">
+    <row r="100" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I100" s="11"/>
     </row>
-    <row r="101">
+    <row r="101" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I101" s="11"/>
     </row>
-    <row r="102">
+    <row r="102" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I102" s="11"/>
     </row>
-    <row r="103">
+    <row r="103" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I103" s="11"/>
     </row>
-    <row r="104">
+    <row r="104" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I104" s="11"/>
     </row>
-    <row r="105">
+    <row r="105" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I105" s="11"/>
     </row>
-    <row r="106">
+    <row r="106" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I106" s="11"/>
     </row>
-    <row r="107">
+    <row r="107" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I107" s="11"/>
     </row>
-    <row r="108">
+    <row r="108" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I108" s="11"/>
     </row>
-    <row r="109">
+    <row r="109" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I109" s="11"/>
     </row>
-    <row r="110">
+    <row r="110" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I110" s="11"/>
     </row>
-    <row r="111">
+    <row r="111" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I111" s="11"/>
     </row>
-    <row r="112">
+    <row r="112" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I112" s="11"/>
     </row>
-    <row r="113">
+    <row r="113" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I113" s="11"/>
     </row>
-    <row r="114">
+    <row r="114" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I114" s="11"/>
     </row>
-    <row r="115">
+    <row r="115" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I115" s="11"/>
     </row>
-    <row r="116">
+    <row r="116" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I116" s="11"/>
     </row>
-    <row r="117">
+    <row r="117" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I117" s="11"/>
     </row>
-    <row r="118">
+    <row r="118" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I118" s="11"/>
     </row>
-    <row r="119">
+    <row r="119" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I119" s="11"/>
     </row>
-    <row r="120">
+    <row r="120" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I120" s="11"/>
     </row>
-    <row r="121">
+    <row r="121" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I121" s="11"/>
     </row>
-    <row r="122">
+    <row r="122" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I122" s="11"/>
     </row>
-    <row r="123">
+    <row r="123" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I123" s="11"/>
     </row>
-    <row r="124">
+    <row r="124" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I124" s="11"/>
     </row>
-    <row r="125">
+    <row r="125" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I125" s="11"/>
     </row>
-    <row r="126">
+    <row r="126" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I126" s="11"/>
     </row>
-    <row r="127">
+    <row r="127" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I127" s="11"/>
     </row>
-    <row r="128">
+    <row r="128" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I128" s="11"/>
     </row>
-    <row r="129">
+    <row r="129" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I129" s="11"/>
     </row>
-    <row r="130">
+    <row r="130" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I130" s="11"/>
     </row>
-    <row r="131">
+    <row r="131" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I131" s="11"/>
     </row>
-    <row r="132">
+    <row r="132" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I132" s="11"/>
     </row>
-    <row r="133">
+    <row r="133" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I133" s="11"/>
     </row>
-    <row r="134">
+    <row r="134" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I134" s="11"/>
     </row>
-    <row r="135">
+    <row r="135" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I135" s="11"/>
     </row>
-    <row r="136">
+    <row r="136" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I136" s="11"/>
     </row>
-    <row r="137">
+    <row r="137" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I137" s="11"/>
     </row>
-    <row r="138">
+    <row r="138" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I138" s="11"/>
     </row>
-    <row r="139">
+    <row r="139" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I139" s="11"/>
     </row>
-    <row r="140">
+    <row r="140" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I140" s="11"/>
     </row>
-    <row r="141">
+    <row r="141" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I141" s="11"/>
     </row>
-    <row r="142">
+    <row r="142" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I142" s="11"/>
     </row>
-    <row r="143">
+    <row r="143" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I143" s="11"/>
     </row>
-    <row r="144">
+    <row r="144" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I144" s="11"/>
     </row>
-    <row r="145">
+    <row r="145" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I145" s="11"/>
     </row>
-    <row r="146">
+    <row r="146" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I146" s="11"/>
     </row>
-    <row r="147">
+    <row r="147" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I147" s="11"/>
     </row>
-    <row r="148">
+    <row r="148" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I148" s="11"/>
     </row>
-    <row r="149">
+    <row r="149" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I149" s="11"/>
     </row>
-    <row r="150">
+    <row r="150" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I150" s="11"/>
     </row>
-    <row r="151">
+    <row r="151" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I151" s="11"/>
     </row>
-    <row r="152">
+    <row r="152" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I152" s="11"/>
     </row>
-    <row r="153">
+    <row r="153" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I153" s="11"/>
     </row>
-    <row r="154">
+    <row r="154" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I154" s="11"/>
     </row>
-    <row r="155">
+    <row r="155" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I155" s="11"/>
     </row>
-    <row r="156">
+    <row r="156" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I156" s="11"/>
     </row>
-    <row r="157">
+    <row r="157" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I157" s="11"/>
     </row>
-    <row r="158">
+    <row r="158" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I158" s="11"/>
     </row>
-    <row r="159">
+    <row r="159" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I159" s="11"/>
     </row>
-    <row r="160">
+    <row r="160" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I160" s="11"/>
     </row>
-    <row r="161">
+    <row r="161" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I161" s="11"/>
     </row>
-    <row r="162">
+    <row r="162" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I162" s="11"/>
     </row>
-    <row r="163">
+    <row r="163" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I163" s="11"/>
     </row>
-    <row r="164">
+    <row r="164" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I164" s="11"/>
     </row>
-    <row r="165">
+    <row r="165" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I165" s="11"/>
     </row>
-    <row r="166">
+    <row r="166" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I166" s="11"/>
     </row>
-    <row r="167">
+    <row r="167" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I167" s="11"/>
     </row>
-    <row r="168">
+    <row r="168" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I168" s="11"/>
     </row>
-    <row r="169">
+    <row r="169" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I169" s="11"/>
     </row>
-    <row r="170">
+    <row r="170" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I170" s="11"/>
     </row>
-    <row r="171">
+    <row r="171" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I171" s="11"/>
     </row>
-    <row r="172">
+    <row r="172" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I172" s="11"/>
     </row>
-    <row r="173">
+    <row r="173" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I173" s="11"/>
     </row>
-    <row r="174">
+    <row r="174" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I174" s="11"/>
     </row>
-    <row r="175">
+    <row r="175" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I175" s="11"/>
     </row>
-    <row r="176">
+    <row r="176" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I176" s="11"/>
     </row>
-    <row r="177">
+    <row r="177" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I177" s="11"/>
     </row>
-    <row r="178">
+    <row r="178" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I178" s="11"/>
     </row>
-    <row r="179">
+    <row r="179" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I179" s="11"/>
     </row>
-    <row r="180">
+    <row r="180" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I180" s="11"/>
     </row>
-    <row r="181">
+    <row r="181" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I181" s="11"/>
     </row>
-    <row r="182">
+    <row r="182" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I182" s="11"/>
     </row>
-    <row r="183">
+    <row r="183" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I183" s="11"/>
     </row>
-    <row r="184">
+    <row r="184" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I184" s="11"/>
     </row>
-    <row r="185">
+    <row r="185" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I185" s="11"/>
     </row>
-    <row r="186">
+    <row r="186" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I186" s="11"/>
     </row>
-    <row r="187">
+    <row r="187" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I187" s="11"/>
     </row>
-    <row r="188">
+    <row r="188" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I188" s="11"/>
     </row>
-    <row r="189">
+    <row r="189" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I189" s="11"/>
     </row>
-    <row r="190">
+    <row r="190" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I190" s="11"/>
     </row>
-    <row r="191">
+    <row r="191" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I191" s="11"/>
     </row>
-    <row r="192">
+    <row r="192" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I192" s="11"/>
     </row>
-    <row r="193">
+    <row r="193" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I193" s="11"/>
     </row>
-    <row r="194">
+    <row r="194" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I194" s="11"/>
     </row>
-    <row r="195">
+    <row r="195" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I195" s="11"/>
     </row>
-    <row r="196">
+    <row r="196" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I196" s="11"/>
     </row>
-    <row r="197">
+    <row r="197" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I197" s="11"/>
     </row>
-    <row r="198">
+    <row r="198" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I198" s="11"/>
     </row>
-    <row r="199">
+    <row r="199" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I199" s="11"/>
     </row>
-    <row r="200">
+    <row r="200" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I200" s="11"/>
     </row>
-    <row r="201">
+    <row r="201" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I201" s="11"/>
     </row>
-    <row r="202">
+    <row r="202" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I202" s="11"/>
     </row>
-    <row r="203">
+    <row r="203" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I203" s="11"/>
     </row>
-    <row r="204">
+    <row r="204" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I204" s="11"/>
     </row>
-    <row r="205">
+    <row r="205" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I205" s="11"/>
     </row>
-    <row r="206">
+    <row r="206" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I206" s="11"/>
     </row>
-    <row r="207">
+    <row r="207" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I207" s="11"/>
     </row>
-    <row r="208">
+    <row r="208" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I208" s="11"/>
     </row>
-    <row r="209">
+    <row r="209" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I209" s="11"/>
     </row>
-    <row r="210">
+    <row r="210" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I210" s="11"/>
     </row>
-    <row r="211">
+    <row r="211" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I211" s="11"/>
     </row>
-    <row r="212">
+    <row r="212" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I212" s="11"/>
     </row>
-    <row r="213">
+    <row r="213" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I213" s="11"/>
     </row>
-    <row r="214">
+    <row r="214" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I214" s="11"/>
     </row>
-    <row r="215">
+    <row r="215" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I215" s="11"/>
     </row>
-    <row r="216">
+    <row r="216" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I216" s="11"/>
     </row>
-    <row r="217">
+    <row r="217" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I217" s="11"/>
     </row>
-    <row r="218">
+    <row r="218" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I218" s="11"/>
     </row>
-    <row r="219">
+    <row r="219" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I219" s="11"/>
     </row>
-    <row r="220">
+    <row r="220" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I220" s="11"/>
     </row>
-    <row r="221">
+    <row r="221" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I221" s="11"/>
     </row>
-    <row r="222">
+    <row r="222" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I222" s="11"/>
     </row>
-    <row r="223">
+    <row r="223" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I223" s="11"/>
     </row>
-    <row r="224">
+    <row r="224" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I224" s="11"/>
     </row>
-    <row r="225">
+    <row r="225" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I225" s="11"/>
     </row>
-    <row r="226">
+    <row r="226" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I226" s="11"/>
     </row>
-    <row r="227">
+    <row r="227" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I227" s="11"/>
     </row>
-    <row r="228">
+    <row r="228" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I228" s="11"/>
     </row>
-    <row r="229">
+    <row r="229" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I229" s="11"/>
     </row>
-    <row r="230">
+    <row r="230" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I230" s="11"/>
     </row>
-    <row r="231">
+    <row r="231" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I231" s="11"/>
     </row>
-    <row r="232">
+    <row r="232" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I232" s="11"/>
     </row>
-    <row r="233">
+    <row r="233" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I233" s="11"/>
     </row>
-    <row r="234">
+    <row r="234" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I234" s="11"/>
     </row>
-    <row r="235">
+    <row r="235" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I235" s="11"/>
     </row>
-    <row r="236">
+    <row r="236" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I236" s="11"/>
     </row>
-    <row r="237">
+    <row r="237" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I237" s="11"/>
     </row>
-    <row r="238">
+    <row r="238" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I238" s="11"/>
     </row>
-    <row r="239">
+    <row r="239" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I239" s="11"/>
     </row>
-    <row r="240">
+    <row r="240" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I240" s="11"/>
     </row>
-    <row r="241">
+    <row r="241" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I241" s="11"/>
     </row>
-    <row r="242">
+    <row r="242" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I242" s="11"/>
     </row>
-    <row r="243">
+    <row r="243" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I243" s="11"/>
     </row>
-    <row r="244">
+    <row r="244" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I244" s="11"/>
     </row>
-    <row r="245">
+    <row r="245" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I245" s="11"/>
     </row>
-    <row r="246">
+    <row r="246" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I246" s="11"/>
     </row>
-    <row r="247">
+    <row r="247" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I247" s="11"/>
     </row>
-    <row r="248">
+    <row r="248" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I248" s="11"/>
     </row>
-    <row r="249">
+    <row r="249" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I249" s="11"/>
     </row>
-    <row r="250">
+    <row r="250" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I250" s="11"/>
     </row>
-    <row r="251">
+    <row r="251" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I251" s="11"/>
     </row>
-    <row r="252">
+    <row r="252" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I252" s="11"/>
     </row>
-    <row r="253">
+    <row r="253" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I253" s="11"/>
     </row>
-    <row r="254">
+    <row r="254" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I254" s="11"/>
     </row>
-    <row r="255">
+    <row r="255" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I255" s="11"/>
     </row>
-    <row r="256">
+    <row r="256" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I256" s="11"/>
     </row>
-    <row r="257">
+    <row r="257" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I257" s="11"/>
     </row>
-    <row r="258">
+    <row r="258" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I258" s="11"/>
     </row>
-    <row r="259">
+    <row r="259" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I259" s="11"/>
     </row>
-    <row r="260">
+    <row r="260" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I260" s="11"/>
     </row>
-    <row r="261">
+    <row r="261" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I261" s="11"/>
     </row>
-    <row r="262">
+    <row r="262" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I262" s="11"/>
     </row>
-    <row r="263">
+    <row r="263" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I263" s="11"/>
     </row>
-    <row r="264">
+    <row r="264" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I264" s="11"/>
     </row>
-    <row r="265">
+    <row r="265" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I265" s="11"/>
     </row>
-    <row r="266">
+    <row r="266" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I266" s="11"/>
     </row>
-    <row r="267">
+    <row r="267" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I267" s="11"/>
     </row>
-    <row r="268">
+    <row r="268" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I268" s="11"/>
     </row>
-    <row r="269">
+    <row r="269" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I269" s="11"/>
     </row>
-    <row r="270">
+    <row r="270" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I270" s="11"/>
     </row>
-    <row r="271">
+    <row r="271" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I271" s="11"/>
     </row>
-    <row r="272">
+    <row r="272" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I272" s="11"/>
     </row>
-    <row r="273">
+    <row r="273" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I273" s="11"/>
     </row>
-    <row r="274">
+    <row r="274" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I274" s="11"/>
     </row>
-    <row r="275">
+    <row r="275" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I275" s="11"/>
     </row>
-    <row r="276">
+    <row r="276" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I276" s="11"/>
     </row>
-    <row r="277">
+    <row r="277" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I277" s="11"/>
     </row>
-    <row r="278">
+    <row r="278" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I278" s="11"/>
     </row>
-    <row r="279">
+    <row r="279" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I279" s="11"/>
     </row>
-    <row r="280">
+    <row r="280" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I280" s="11"/>
     </row>
-    <row r="281">
+    <row r="281" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I281" s="11"/>
     </row>
-    <row r="282">
+    <row r="282" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I282" s="11"/>
     </row>
-    <row r="283">
+    <row r="283" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I283" s="11"/>
     </row>
-    <row r="284">
+    <row r="284" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I284" s="11"/>
     </row>
-    <row r="285">
+    <row r="285" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I285" s="11"/>
     </row>
-    <row r="286">
+    <row r="286" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I286" s="11"/>
     </row>
-    <row r="287">
+    <row r="287" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I287" s="11"/>
     </row>
-    <row r="288">
+    <row r="288" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I288" s="11"/>
     </row>
-    <row r="289">
+    <row r="289" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I289" s="11"/>
     </row>
-    <row r="290">
+    <row r="290" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I290" s="11"/>
     </row>
-    <row r="291">
+    <row r="291" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I291" s="11"/>
     </row>
-    <row r="292">
+    <row r="292" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I292" s="11"/>
     </row>
-    <row r="293">
+    <row r="293" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I293" s="11"/>
     </row>
-    <row r="294">
+    <row r="294" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I294" s="11"/>
     </row>
-    <row r="295">
+    <row r="295" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I295" s="11"/>
     </row>
-    <row r="296">
+    <row r="296" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I296" s="11"/>
     </row>
-    <row r="297">
+    <row r="297" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I297" s="11"/>
     </row>
-    <row r="298">
+    <row r="298" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I298" s="11"/>
     </row>
-    <row r="299">
+    <row r="299" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I299" s="11"/>
     </row>
-    <row r="300">
+    <row r="300" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I300" s="11"/>
     </row>
-    <row r="301">
+    <row r="301" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I301" s="11"/>
     </row>
-    <row r="302">
+    <row r="302" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I302" s="11"/>
     </row>
-    <row r="303">
+    <row r="303" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I303" s="11"/>
     </row>
-    <row r="304">
+    <row r="304" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I304" s="11"/>
     </row>
-    <row r="305">
+    <row r="305" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I305" s="11"/>
     </row>
-    <row r="306">
+    <row r="306" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I306" s="11"/>
     </row>
-    <row r="307">
+    <row r="307" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I307" s="11"/>
     </row>
-    <row r="308">
+    <row r="308" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I308" s="11"/>
     </row>
-    <row r="309">
+    <row r="309" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I309" s="11"/>
     </row>
-    <row r="310">
+    <row r="310" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I310" s="11"/>
     </row>
-    <row r="311">
+    <row r="311" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I311" s="11"/>
     </row>
-    <row r="312">
+    <row r="312" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I312" s="11"/>
     </row>
-    <row r="313">
+    <row r="313" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I313" s="11"/>
     </row>
-    <row r="314">
+    <row r="314" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I314" s="11"/>
     </row>
-    <row r="315">
+    <row r="315" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I315" s="11"/>
     </row>
-    <row r="316">
+    <row r="316" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I316" s="11"/>
     </row>
-    <row r="317">
+    <row r="317" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I317" s="11"/>
     </row>
-    <row r="318">
+    <row r="318" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I318" s="11"/>
     </row>
-    <row r="319">
+    <row r="319" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I319" s="11"/>
     </row>
-    <row r="320">
+    <row r="320" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I320" s="11"/>
     </row>
-    <row r="321">
+    <row r="321" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I321" s="11"/>
     </row>
-    <row r="322">
+    <row r="322" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I322" s="11"/>
     </row>
-    <row r="323">
+    <row r="323" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I323" s="11"/>
     </row>
-    <row r="324">
+    <row r="324" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I324" s="11"/>
     </row>
-    <row r="325">
+    <row r="325" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I325" s="11"/>
     </row>
-    <row r="326">
+    <row r="326" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I326" s="11"/>
     </row>
-    <row r="327">
+    <row r="327" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I327" s="11"/>
     </row>
-    <row r="328">
+    <row r="328" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I328" s="11"/>
     </row>
-    <row r="329">
+    <row r="329" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I329" s="11"/>
     </row>
-    <row r="330">
+    <row r="330" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I330" s="11"/>
     </row>
-    <row r="331">
+    <row r="331" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I331" s="11"/>
     </row>
-    <row r="332">
+    <row r="332" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I332" s="11"/>
     </row>
-    <row r="333">
+    <row r="333" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I333" s="11"/>
     </row>
-    <row r="334">
+    <row r="334" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I334" s="11"/>
     </row>
-    <row r="335">
+    <row r="335" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I335" s="11"/>
     </row>
-    <row r="336">
+    <row r="336" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I336" s="11"/>
     </row>
-    <row r="337">
+    <row r="337" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I337" s="11"/>
     </row>
-    <row r="338">
+    <row r="338" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I338" s="11"/>
     </row>
-    <row r="339">
+    <row r="339" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I339" s="11"/>
     </row>
-    <row r="340">
+    <row r="340" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I340" s="11"/>
     </row>
-    <row r="341">
+    <row r="341" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I341" s="11"/>
     </row>
-    <row r="342">
+    <row r="342" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I342" s="11"/>
     </row>
-    <row r="343">
+    <row r="343" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I343" s="11"/>
     </row>
-    <row r="344">
+    <row r="344" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I344" s="11"/>
     </row>
-    <row r="345">
+    <row r="345" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I345" s="11"/>
     </row>
-    <row r="346">
+    <row r="346" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I346" s="11"/>
     </row>
-    <row r="347">
+    <row r="347" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I347" s="11"/>
     </row>
-    <row r="348">
+    <row r="348" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I348" s="11"/>
     </row>
-    <row r="349">
+    <row r="349" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I349" s="11"/>
     </row>
-    <row r="350">
+    <row r="350" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I350" s="11"/>
     </row>
-    <row r="351">
+    <row r="351" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I351" s="11"/>
     </row>
-    <row r="352">
+    <row r="352" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I352" s="11"/>
     </row>
-    <row r="353">
+    <row r="353" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I353" s="11"/>
     </row>
-    <row r="354">
+    <row r="354" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I354" s="11"/>
     </row>
-    <row r="355">
+    <row r="355" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I355" s="11"/>
     </row>
-    <row r="356">
+    <row r="356" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I356" s="11"/>
     </row>
-    <row r="357">
+    <row r="357" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I357" s="11"/>
     </row>
-    <row r="358">
+    <row r="358" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I358" s="11"/>
     </row>
-    <row r="359">
+    <row r="359" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I359" s="11"/>
     </row>
-    <row r="360">
+    <row r="360" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I360" s="11"/>
     </row>
-    <row r="361">
+    <row r="361" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I361" s="11"/>
     </row>
-    <row r="362">
+    <row r="362" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I362" s="11"/>
     </row>
-    <row r="363">
+    <row r="363" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I363" s="11"/>
     </row>
-    <row r="364">
+    <row r="364" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I364" s="11"/>
     </row>
-    <row r="365">
+    <row r="365" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I365" s="11"/>
     </row>
-    <row r="366">
+    <row r="366" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I366" s="11"/>
     </row>
-    <row r="367">
+    <row r="367" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I367" s="11"/>
     </row>
-    <row r="368">
+    <row r="368" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I368" s="11"/>
     </row>
-    <row r="369">
+    <row r="369" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I369" s="11"/>
     </row>
-    <row r="370">
+    <row r="370" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I370" s="11"/>
     </row>
-    <row r="371">
+    <row r="371" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I371" s="11"/>
     </row>
-    <row r="372">
+    <row r="372" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I372" s="11"/>
     </row>
-    <row r="373">
+    <row r="373" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I373" s="11"/>
     </row>
-    <row r="374">
+    <row r="374" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I374" s="11"/>
     </row>
-    <row r="375">
+    <row r="375" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I375" s="11"/>
     </row>
-    <row r="376">
+    <row r="376" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I376" s="11"/>
     </row>
-    <row r="377">
+    <row r="377" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I377" s="11"/>
     </row>
-    <row r="378">
+    <row r="378" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I378" s="11"/>
     </row>
-    <row r="379">
+    <row r="379" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I379" s="11"/>
     </row>
-    <row r="380">
+    <row r="380" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I380" s="11"/>
     </row>
-    <row r="381">
+    <row r="381" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I381" s="11"/>
     </row>
-    <row r="382">
+    <row r="382" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I382" s="11"/>
     </row>
-    <row r="383">
+    <row r="383" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I383" s="11"/>
     </row>
-    <row r="384">
+    <row r="384" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I384" s="11"/>
     </row>
-    <row r="385">
+    <row r="385" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I385" s="11"/>
     </row>
-    <row r="386">
+    <row r="386" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I386" s="11"/>
     </row>
-    <row r="387">
+    <row r="387" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I387" s="11"/>
     </row>
-    <row r="388">
+    <row r="388" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I388" s="11"/>
     </row>
-    <row r="389">
+    <row r="389" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I389" s="11"/>
     </row>
-    <row r="390">
+    <row r="390" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I390" s="11"/>
     </row>
-    <row r="391">
+    <row r="391" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I391" s="11"/>
     </row>
-    <row r="392">
+    <row r="392" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I392" s="11"/>
     </row>
-    <row r="393">
+    <row r="393" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I393" s="11"/>
     </row>
-    <row r="394">
+    <row r="394" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I394" s="11"/>
     </row>
-    <row r="395">
+    <row r="395" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I395" s="11"/>
     </row>
-    <row r="396">
+    <row r="396" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I396" s="11"/>
     </row>
-    <row r="397">
+    <row r="397" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I397" s="11"/>
     </row>
-    <row r="398">
+    <row r="398" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I398" s="11"/>
     </row>
-    <row r="399">
+    <row r="399" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I399" s="11"/>
     </row>
-    <row r="400">
+    <row r="400" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I400" s="11"/>
     </row>
-    <row r="401">
+    <row r="401" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I401" s="11"/>
     </row>
-    <row r="402">
+    <row r="402" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I402" s="11"/>
     </row>
-    <row r="403">
+    <row r="403" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I403" s="11"/>
     </row>
-    <row r="404">
+    <row r="404" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I404" s="11"/>
     </row>
-    <row r="405">
+    <row r="405" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I405" s="11"/>
     </row>
-    <row r="406">
+    <row r="406" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I406" s="11"/>
     </row>
-    <row r="407">
+    <row r="407" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I407" s="11"/>
     </row>
-    <row r="408">
+    <row r="408" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I408" s="11"/>
     </row>
-    <row r="409">
+    <row r="409" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I409" s="11"/>
     </row>
-    <row r="410">
+    <row r="410" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I410" s="11"/>
     </row>
-    <row r="411">
+    <row r="411" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I411" s="11"/>
     </row>
-    <row r="412">
+    <row r="412" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I412" s="11"/>
     </row>
-    <row r="413">
+    <row r="413" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I413" s="11"/>
     </row>
-    <row r="414">
+    <row r="414" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I414" s="11"/>
     </row>
-    <row r="415">
+    <row r="415" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I415" s="11"/>
     </row>
-    <row r="416">
+    <row r="416" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I416" s="11"/>
     </row>
-    <row r="417">
+    <row r="417" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I417" s="11"/>
     </row>
-    <row r="418">
+    <row r="418" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I418" s="11"/>
     </row>
-    <row r="419">
+    <row r="419" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I419" s="11"/>
     </row>
-    <row r="420">
+    <row r="420" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I420" s="11"/>
     </row>
-    <row r="421">
+    <row r="421" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I421" s="11"/>
     </row>
-    <row r="422">
+    <row r="422" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I422" s="11"/>
     </row>
-    <row r="423">
+    <row r="423" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I423" s="11"/>
     </row>
-    <row r="424">
+    <row r="424" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I424" s="11"/>
     </row>
-    <row r="425">
+    <row r="425" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I425" s="11"/>
     </row>
-    <row r="426">
+    <row r="426" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I426" s="11"/>
     </row>
-    <row r="427">
+    <row r="427" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I427" s="11"/>
     </row>
-    <row r="428">
+    <row r="428" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I428" s="11"/>
     </row>
-    <row r="429">
+    <row r="429" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I429" s="11"/>
     </row>
-    <row r="430">
+    <row r="430" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I430" s="11"/>
     </row>
-    <row r="431">
+    <row r="431" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I431" s="11"/>
     </row>
-    <row r="432">
+    <row r="432" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I432" s="11"/>
     </row>
-    <row r="433">
+    <row r="433" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I433" s="11"/>
     </row>
-    <row r="434">
+    <row r="434" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I434" s="11"/>
     </row>
-    <row r="435">
+    <row r="435" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I435" s="11"/>
     </row>
-    <row r="436">
+    <row r="436" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I436" s="11"/>
     </row>
-    <row r="437">
+    <row r="437" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I437" s="11"/>
     </row>
-    <row r="438">
+    <row r="438" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I438" s="11"/>
     </row>
-    <row r="439">
+    <row r="439" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I439" s="11"/>
     </row>
-    <row r="440">
+    <row r="440" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I440" s="11"/>
     </row>
-    <row r="441">
+    <row r="441" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I441" s="11"/>
     </row>
-    <row r="442">
+    <row r="442" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I442" s="11"/>
     </row>
-    <row r="443">
+    <row r="443" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I443" s="11"/>
     </row>
-    <row r="444">
+    <row r="444" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I444" s="11"/>
     </row>
-    <row r="445">
+    <row r="445" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I445" s="11"/>
     </row>
-    <row r="446">
+    <row r="446" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I446" s="11"/>
     </row>
-    <row r="447">
+    <row r="447" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I447" s="11"/>
     </row>
-    <row r="448">
+    <row r="448" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I448" s="11"/>
     </row>
-    <row r="449">
+    <row r="449" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I449" s="11"/>
     </row>
-    <row r="450">
+    <row r="450" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I450" s="11"/>
     </row>
-    <row r="451">
+    <row r="451" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I451" s="11"/>
     </row>
-    <row r="452">
+    <row r="452" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I452" s="11"/>
     </row>
-    <row r="453">
+    <row r="453" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I453" s="11"/>
     </row>
-    <row r="454">
+    <row r="454" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I454" s="11"/>
     </row>
-    <row r="455">
+    <row r="455" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I455" s="11"/>
     </row>
-    <row r="456">
+    <row r="456" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I456" s="11"/>
     </row>
-    <row r="457">
+    <row r="457" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I457" s="11"/>
     </row>
-    <row r="458">
+    <row r="458" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I458" s="11"/>
     </row>
-    <row r="459">
+    <row r="459" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I459" s="11"/>
     </row>
-    <row r="460">
+    <row r="460" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I460" s="11"/>
     </row>
-    <row r="461">
+    <row r="461" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I461" s="11"/>
     </row>
-    <row r="462">
+    <row r="462" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I462" s="11"/>
     </row>
-    <row r="463">
+    <row r="463" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I463" s="11"/>
     </row>
-    <row r="464">
+    <row r="464" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I464" s="11"/>
     </row>
-    <row r="465">
+    <row r="465" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I465" s="11"/>
     </row>
-    <row r="466">
+    <row r="466" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I466" s="11"/>
     </row>
-    <row r="467">
+    <row r="467" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I467" s="11"/>
     </row>
-    <row r="468">
+    <row r="468" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I468" s="11"/>
     </row>
-    <row r="469">
+    <row r="469" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I469" s="11"/>
     </row>
-    <row r="470">
+    <row r="470" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I470" s="11"/>
     </row>
-    <row r="471">
+    <row r="471" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I471" s="11"/>
     </row>
-    <row r="472">
+    <row r="472" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I472" s="11"/>
     </row>
-    <row r="473">
+    <row r="473" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I473" s="11"/>
     </row>
-    <row r="474">
+    <row r="474" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I474" s="11"/>
     </row>
-    <row r="475">
+    <row r="475" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I475" s="11"/>
     </row>
-    <row r="476">
+    <row r="476" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I476" s="11"/>
     </row>
-    <row r="477">
+    <row r="477" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I477" s="11"/>
     </row>
-    <row r="478">
+    <row r="478" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I478" s="11"/>
     </row>
-    <row r="479">
+    <row r="479" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I479" s="11"/>
     </row>
-    <row r="480">
+    <row r="480" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I480" s="11"/>
     </row>
-    <row r="481">
+    <row r="481" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I481" s="11"/>
     </row>
-    <row r="482">
+    <row r="482" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I482" s="11"/>
     </row>
-    <row r="483">
+    <row r="483" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I483" s="11"/>
     </row>
-    <row r="484">
+    <row r="484" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I484" s="11"/>
     </row>
-    <row r="485">
+    <row r="485" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I485" s="11"/>
     </row>
-    <row r="486">
+    <row r="486" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I486" s="11"/>
     </row>
-    <row r="487">
+    <row r="487" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I487" s="11"/>
     </row>
-    <row r="488">
+    <row r="488" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I488" s="11"/>
     </row>
-    <row r="489">
+    <row r="489" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I489" s="11"/>
     </row>
-    <row r="490">
+    <row r="490" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I490" s="11"/>
     </row>
-    <row r="491">
+    <row r="491" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I491" s="11"/>
     </row>
-    <row r="492">
+    <row r="492" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I492" s="11"/>
     </row>
-    <row r="493">
+    <row r="493" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I493" s="11"/>
     </row>
-    <row r="494">
+    <row r="494" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I494" s="11"/>
     </row>
-    <row r="495">
+    <row r="495" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I495" s="11"/>
     </row>
-    <row r="496">
+    <row r="496" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I496" s="11"/>
     </row>
-    <row r="497">
+    <row r="497" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I497" s="11"/>
     </row>
-    <row r="498">
+    <row r="498" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I498" s="11"/>
     </row>
-    <row r="499">
+    <row r="499" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I499" s="11"/>
     </row>
-    <row r="500">
+    <row r="500" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I500" s="11"/>
     </row>
-    <row r="501">
+    <row r="501" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I501" s="11"/>
     </row>
-    <row r="502">
+    <row r="502" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I502" s="11"/>
     </row>
-    <row r="503">
+    <row r="503" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I503" s="11"/>
     </row>
-    <row r="504">
+    <row r="504" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I504" s="11"/>
     </row>
-    <row r="505">
+    <row r="505" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I505" s="11"/>
     </row>
-    <row r="506">
+    <row r="506" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I506" s="11"/>
     </row>
-    <row r="507">
+    <row r="507" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I507" s="11"/>
     </row>
-    <row r="508">
+    <row r="508" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I508" s="11"/>
     </row>
-    <row r="509">
+    <row r="509" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I509" s="11"/>
     </row>
-    <row r="510">
+    <row r="510" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I510" s="11"/>
     </row>
-    <row r="511">
+    <row r="511" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I511" s="11"/>
     </row>
-    <row r="512">
+    <row r="512" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I512" s="11"/>
     </row>
-    <row r="513">
+    <row r="513" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I513" s="11"/>
     </row>
-    <row r="514">
+    <row r="514" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I514" s="11"/>
     </row>
-    <row r="515">
+    <row r="515" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I515" s="11"/>
     </row>
-    <row r="516">
+    <row r="516" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I516" s="11"/>
     </row>
-    <row r="517">
+    <row r="517" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I517" s="11"/>
     </row>
-    <row r="518">
+    <row r="518" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I518" s="11"/>
     </row>
-    <row r="519">
+    <row r="519" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I519" s="11"/>
     </row>
-    <row r="520">
+    <row r="520" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I520" s="11"/>
     </row>
-    <row r="521">
+    <row r="521" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I521" s="11"/>
     </row>
-    <row r="522">
+    <row r="522" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I522" s="11"/>
     </row>
-    <row r="523">
+    <row r="523" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I523" s="11"/>
     </row>
-    <row r="524">
+    <row r="524" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I524" s="11"/>
     </row>
-    <row r="525">
+    <row r="525" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I525" s="11"/>
     </row>
-    <row r="526">
+    <row r="526" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I526" s="11"/>
     </row>
-    <row r="527">
+    <row r="527" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I527" s="11"/>
     </row>
-    <row r="528">
+    <row r="528" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I528" s="11"/>
     </row>
-    <row r="529">
+    <row r="529" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I529" s="11"/>
     </row>
-    <row r="530">
+    <row r="530" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I530" s="11"/>
     </row>
-    <row r="531">
+    <row r="531" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I531" s="11"/>
     </row>
-    <row r="532">
+    <row r="532" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I532" s="11"/>
     </row>
-    <row r="533">
+    <row r="533" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I533" s="11"/>
     </row>
-    <row r="534">
+    <row r="534" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I534" s="11"/>
     </row>
-    <row r="535">
+    <row r="535" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I535" s="11"/>
     </row>
-    <row r="536">
+    <row r="536" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I536" s="11"/>
     </row>
-    <row r="537">
+    <row r="537" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I537" s="11"/>
     </row>
-    <row r="538">
+    <row r="538" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I538" s="11"/>
     </row>
-    <row r="539">
+    <row r="539" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I539" s="11"/>
     </row>
-    <row r="540">
+    <row r="540" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I540" s="11"/>
     </row>
-    <row r="541">
+    <row r="541" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I541" s="11"/>
     </row>
-    <row r="542">
+    <row r="542" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I542" s="11"/>
     </row>
-    <row r="543">
+    <row r="543" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I543" s="11"/>
     </row>
-    <row r="544">
+    <row r="544" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I544" s="11"/>
     </row>
-    <row r="545">
+    <row r="545" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I545" s="11"/>
     </row>
-    <row r="546">
+    <row r="546" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I546" s="11"/>
     </row>
-    <row r="547">
+    <row r="547" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I547" s="11"/>
     </row>
-    <row r="548">
+    <row r="548" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I548" s="11"/>
     </row>
-    <row r="549">
+    <row r="549" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I549" s="11"/>
     </row>
-    <row r="550">
+    <row r="550" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I550" s="11"/>
     </row>
-    <row r="551">
+    <row r="551" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I551" s="11"/>
     </row>
-    <row r="552">
+    <row r="552" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I552" s="11"/>
     </row>
-    <row r="553">
+    <row r="553" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I553" s="11"/>
     </row>
-    <row r="554">
+    <row r="554" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I554" s="11"/>
     </row>
-    <row r="555">
+    <row r="555" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I555" s="11"/>
     </row>
-    <row r="556">
+    <row r="556" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I556" s="11"/>
     </row>
-    <row r="557">
+    <row r="557" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I557" s="11"/>
     </row>
-    <row r="558">
+    <row r="558" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I558" s="11"/>
     </row>
-    <row r="559">
+    <row r="559" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I559" s="11"/>
     </row>
-    <row r="560">
+    <row r="560" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I560" s="11"/>
     </row>
-    <row r="561">
+    <row r="561" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I561" s="11"/>
     </row>
-    <row r="562">
+    <row r="562" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I562" s="11"/>
     </row>
-    <row r="563">
+    <row r="563" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I563" s="11"/>
     </row>
-    <row r="564">
+    <row r="564" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I564" s="11"/>
     </row>
-    <row r="565">
+    <row r="565" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I565" s="11"/>
     </row>
-    <row r="566">
+    <row r="566" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I566" s="11"/>
     </row>
-    <row r="567">
+    <row r="567" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I567" s="11"/>
     </row>
-    <row r="568">
+    <row r="568" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I568" s="11"/>
     </row>
-    <row r="569">
+    <row r="569" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I569" s="11"/>
     </row>
-    <row r="570">
+    <row r="570" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I570" s="11"/>
     </row>
-    <row r="571">
+    <row r="571" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I571" s="11"/>
     </row>
-    <row r="572">
+    <row r="572" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I572" s="11"/>
     </row>
-    <row r="573">
+    <row r="573" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I573" s="11"/>
     </row>
-    <row r="574">
+    <row r="574" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I574" s="11"/>
     </row>
-    <row r="575">
+    <row r="575" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I575" s="11"/>
     </row>
-    <row r="576">
+    <row r="576" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I576" s="11"/>
     </row>
-    <row r="577">
+    <row r="577" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I577" s="11"/>
     </row>
-    <row r="578">
+    <row r="578" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I578" s="11"/>
     </row>
-    <row r="579">
+    <row r="579" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I579" s="11"/>
     </row>
-    <row r="580">
+    <row r="580" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I580" s="11"/>
     </row>
-    <row r="581">
+    <row r="581" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I581" s="11"/>
     </row>
-    <row r="582">
+    <row r="582" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I582" s="11"/>
     </row>
-    <row r="583">
+    <row r="583" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I583" s="11"/>
     </row>
-    <row r="584">
+    <row r="584" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I584" s="11"/>
     </row>
-    <row r="585">
+    <row r="585" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I585" s="11"/>
     </row>
-    <row r="586">
+    <row r="586" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I586" s="11"/>
     </row>
-    <row r="587">
+    <row r="587" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I587" s="11"/>
     </row>
-    <row r="588">
+    <row r="588" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I588" s="11"/>
     </row>
-    <row r="589">
+    <row r="589" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I589" s="11"/>
     </row>
-    <row r="590">
+    <row r="590" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I590" s="11"/>
     </row>
-    <row r="591">
+    <row r="591" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I591" s="11"/>
     </row>
-    <row r="592">
+    <row r="592" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I592" s="11"/>
     </row>
-    <row r="593">
+    <row r="593" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I593" s="11"/>
     </row>
-    <row r="594">
+    <row r="594" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I594" s="11"/>
     </row>
-    <row r="595">
+    <row r="595" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I595" s="11"/>
     </row>
-    <row r="596">
+    <row r="596" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I596" s="11"/>
     </row>
-    <row r="597">
+    <row r="597" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I597" s="11"/>
     </row>
-    <row r="598">
+    <row r="598" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I598" s="11"/>
     </row>
-    <row r="599">
+    <row r="599" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I599" s="11"/>
     </row>
-    <row r="600">
+    <row r="600" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I600" s="11"/>
     </row>
-    <row r="601">
+    <row r="601" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I601" s="11"/>
     </row>
-    <row r="602">
+    <row r="602" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I602" s="11"/>
     </row>
-    <row r="603">
+    <row r="603" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I603" s="11"/>
     </row>
-    <row r="604">
+    <row r="604" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I604" s="11"/>
     </row>
-    <row r="605">
+    <row r="605" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I605" s="11"/>
     </row>
-    <row r="606">
+    <row r="606" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I606" s="11"/>
     </row>
-    <row r="607">
+    <row r="607" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I607" s="11"/>
     </row>
-    <row r="608">
+    <row r="608" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I608" s="11"/>
     </row>
-    <row r="609">
+    <row r="609" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I609" s="11"/>
     </row>
-    <row r="610">
+    <row r="610" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I610" s="11"/>
     </row>
-    <row r="611">
+    <row r="611" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I611" s="11"/>
     </row>
-    <row r="612">
+    <row r="612" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I612" s="11"/>
     </row>
-    <row r="613">
+    <row r="613" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I613" s="11"/>
     </row>
-    <row r="614">
+    <row r="614" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I614" s="11"/>
     </row>
-    <row r="615">
+    <row r="615" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I615" s="11"/>
     </row>
-    <row r="616">
+    <row r="616" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I616" s="11"/>
     </row>
-    <row r="617">
+    <row r="617" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I617" s="11"/>
     </row>
-    <row r="618">
+    <row r="618" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I618" s="11"/>
     </row>
-    <row r="619">
+    <row r="619" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I619" s="11"/>
     </row>
-    <row r="620">
+    <row r="620" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I620" s="11"/>
     </row>
-    <row r="621">
+    <row r="621" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I621" s="11"/>
     </row>
-    <row r="622">
+    <row r="622" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I622" s="11"/>
     </row>
-    <row r="623">
+    <row r="623" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I623" s="11"/>
     </row>
-    <row r="624">
+    <row r="624" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I624" s="11"/>
     </row>
-    <row r="625">
+    <row r="625" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I625" s="11"/>
     </row>
-    <row r="626">
+    <row r="626" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I626" s="11"/>
     </row>
-    <row r="627">
+    <row r="627" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I627" s="11"/>
     </row>
-    <row r="628">
+    <row r="628" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I628" s="11"/>
     </row>
-    <row r="629">
+    <row r="629" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I629" s="11"/>
     </row>
-    <row r="630">
+    <row r="630" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I630" s="11"/>
     </row>
-    <row r="631">
+    <row r="631" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I631" s="11"/>
     </row>
-    <row r="632">
+    <row r="632" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I632" s="11"/>
     </row>
-    <row r="633">
+    <row r="633" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I633" s="11"/>
     </row>
-    <row r="634">
+    <row r="634" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I634" s="11"/>
     </row>
-    <row r="635">
+    <row r="635" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I635" s="11"/>
     </row>
-    <row r="636">
+    <row r="636" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I636" s="11"/>
     </row>
-    <row r="637">
+    <row r="637" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I637" s="11"/>
     </row>
-    <row r="638">
+    <row r="638" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I638" s="11"/>
     </row>
-    <row r="639">
+    <row r="639" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I639" s="11"/>
     </row>
-    <row r="640">
+    <row r="640" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I640" s="11"/>
     </row>
-    <row r="641">
+    <row r="641" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I641" s="11"/>
     </row>
-    <row r="642">
+    <row r="642" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I642" s="11"/>
     </row>
-    <row r="643">
+    <row r="643" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I643" s="11"/>
     </row>
-    <row r="644">
+    <row r="644" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I644" s="11"/>
     </row>
-    <row r="645">
+    <row r="645" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I645" s="11"/>
     </row>
-    <row r="646">
+    <row r="646" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I646" s="11"/>
     </row>
-    <row r="647">
+    <row r="647" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I647" s="11"/>
     </row>
-    <row r="648">
+    <row r="648" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I648" s="11"/>
     </row>
-    <row r="649">
+    <row r="649" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I649" s="11"/>
     </row>
-    <row r="650">
+    <row r="650" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I650" s="11"/>
     </row>
-    <row r="651">
+    <row r="651" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I651" s="11"/>
     </row>
-    <row r="652">
+    <row r="652" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I652" s="11"/>
     </row>
-    <row r="653">
+    <row r="653" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I653" s="11"/>
     </row>
-    <row r="654">
+    <row r="654" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I654" s="11"/>
     </row>
-    <row r="655">
+    <row r="655" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I655" s="11"/>
     </row>
-    <row r="656">
+    <row r="656" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I656" s="11"/>
     </row>
-    <row r="657">
+    <row r="657" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I657" s="11"/>
     </row>
-    <row r="658">
+    <row r="658" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I658" s="11"/>
     </row>
-    <row r="659">
+    <row r="659" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I659" s="11"/>
     </row>
-    <row r="660">
+    <row r="660" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I660" s="11"/>
     </row>
-    <row r="661">
+    <row r="661" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I661" s="11"/>
     </row>
-    <row r="662">
+    <row r="662" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I662" s="11"/>
     </row>
-    <row r="663">
+    <row r="663" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I663" s="11"/>
     </row>
-    <row r="664">
+    <row r="664" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I664" s="11"/>
     </row>
-    <row r="665">
+    <row r="665" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I665" s="11"/>
     </row>
-    <row r="666">
+    <row r="666" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I666" s="11"/>
     </row>
-    <row r="667">
+    <row r="667" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I667" s="11"/>
     </row>
-    <row r="668">
+    <row r="668" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I668" s="11"/>
     </row>
-    <row r="669">
+    <row r="669" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I669" s="11"/>
     </row>
-    <row r="670">
+    <row r="670" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I670" s="11"/>
     </row>
-    <row r="671">
+    <row r="671" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I671" s="11"/>
     </row>
-    <row r="672">
+    <row r="672" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I672" s="11"/>
     </row>
-    <row r="673">
+    <row r="673" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I673" s="11"/>
     </row>
-    <row r="674">
+    <row r="674" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I674" s="11"/>
     </row>
-    <row r="675">
+    <row r="675" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I675" s="11"/>
     </row>
-    <row r="676">
+    <row r="676" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I676" s="11"/>
     </row>
-    <row r="677">
+    <row r="677" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I677" s="11"/>
     </row>
-    <row r="678">
+    <row r="678" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I678" s="11"/>
     </row>
-    <row r="679">
+    <row r="679" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I679" s="11"/>
     </row>
-    <row r="680">
+    <row r="680" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I680" s="11"/>
     </row>
-    <row r="681">
+    <row r="681" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I681" s="11"/>
     </row>
-    <row r="682">
+    <row r="682" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I682" s="11"/>
     </row>
-    <row r="683">
+    <row r="683" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I683" s="11"/>
     </row>
-    <row r="684">
+    <row r="684" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I684" s="11"/>
     </row>
-    <row r="685">
+    <row r="685" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I685" s="11"/>
     </row>
-    <row r="686">
+    <row r="686" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I686" s="11"/>
     </row>
-    <row r="687">
+    <row r="687" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I687" s="11"/>
     </row>
-    <row r="688">
+    <row r="688" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I688" s="11"/>
     </row>
-    <row r="689">
+    <row r="689" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I689" s="11"/>
     </row>
-    <row r="690">
+    <row r="690" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I690" s="11"/>
     </row>
-    <row r="691">
+    <row r="691" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I691" s="11"/>
     </row>
-    <row r="692">
+    <row r="692" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I692" s="11"/>
     </row>
-    <row r="693">
+    <row r="693" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I693" s="11"/>
     </row>
-    <row r="694">
+    <row r="694" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I694" s="11"/>
     </row>
-    <row r="695">
+    <row r="695" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I695" s="11"/>
     </row>
-    <row r="696">
+    <row r="696" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I696" s="11"/>
     </row>
-    <row r="697">
+    <row r="697" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I697" s="11"/>
     </row>
-    <row r="698">
+    <row r="698" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I698" s="11"/>
     </row>
-    <row r="699">
+    <row r="699" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I699" s="11"/>
     </row>
-    <row r="700">
+    <row r="700" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I700" s="11"/>
     </row>
-    <row r="701">
+    <row r="701" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I701" s="11"/>
     </row>
-    <row r="702">
+    <row r="702" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I702" s="11"/>
     </row>
-    <row r="703">
+    <row r="703" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I703" s="11"/>
     </row>
-    <row r="704">
+    <row r="704" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I704" s="11"/>
     </row>
-    <row r="705">
+    <row r="705" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I705" s="11"/>
     </row>
-    <row r="706">
+    <row r="706" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I706" s="11"/>
     </row>
-    <row r="707">
+    <row r="707" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I707" s="11"/>
     </row>
-    <row r="708">
+    <row r="708" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I708" s="11"/>
     </row>
-    <row r="709">
+    <row r="709" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I709" s="11"/>
     </row>
-    <row r="710">
+    <row r="710" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I710" s="11"/>
     </row>
-    <row r="711">
+    <row r="711" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I711" s="11"/>
     </row>
-    <row r="712">
+    <row r="712" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I712" s="11"/>
     </row>
-    <row r="713">
+    <row r="713" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I713" s="11"/>
     </row>
-    <row r="714">
+    <row r="714" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I714" s="11"/>
     </row>
-    <row r="715">
+    <row r="715" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I715" s="11"/>
     </row>
-    <row r="716">
+    <row r="716" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I716" s="11"/>
     </row>
-    <row r="717">
+    <row r="717" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I717" s="11"/>
     </row>
-    <row r="718">
+    <row r="718" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I718" s="11"/>
     </row>
-    <row r="719">
+    <row r="719" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I719" s="11"/>
     </row>
-    <row r="720">
+    <row r="720" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I720" s="11"/>
     </row>
-    <row r="721">
+    <row r="721" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I721" s="11"/>
     </row>
-    <row r="722">
+    <row r="722" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I722" s="11"/>
     </row>
-    <row r="723">
+    <row r="723" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I723" s="11"/>
     </row>
-    <row r="724">
+    <row r="724" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I724" s="11"/>
     </row>
-    <row r="725">
+    <row r="725" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I725" s="11"/>
     </row>
-    <row r="726">
+    <row r="726" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I726" s="11"/>
     </row>
-    <row r="727">
+    <row r="727" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I727" s="11"/>
     </row>
-    <row r="728">
+    <row r="728" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I728" s="11"/>
     </row>
-    <row r="729">
+    <row r="729" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I729" s="11"/>
     </row>
-    <row r="730">
+    <row r="730" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I730" s="11"/>
     </row>
-    <row r="731">
+    <row r="731" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I731" s="11"/>
     </row>
-    <row r="732">
+    <row r="732" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I732" s="11"/>
     </row>
-    <row r="733">
+    <row r="733" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I733" s="11"/>
     </row>
-    <row r="734">
+    <row r="734" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I734" s="11"/>
     </row>
-    <row r="735">
+    <row r="735" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I735" s="11"/>
     </row>
-    <row r="736">
+    <row r="736" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I736" s="11"/>
     </row>
-    <row r="737">
+    <row r="737" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I737" s="11"/>
     </row>
-    <row r="738">
+    <row r="738" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I738" s="11"/>
     </row>
-    <row r="739">
+    <row r="739" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I739" s="11"/>
     </row>
-    <row r="740">
+    <row r="740" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I740" s="11"/>
     </row>
-    <row r="741">
+    <row r="741" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I741" s="11"/>
     </row>
-    <row r="742">
+    <row r="742" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I742" s="11"/>
     </row>
-    <row r="743">
+    <row r="743" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I743" s="11"/>
     </row>
-    <row r="744">
+    <row r="744" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I744" s="11"/>
     </row>
-    <row r="745">
+    <row r="745" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I745" s="11"/>
     </row>
-    <row r="746">
+    <row r="746" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I746" s="11"/>
     </row>
-    <row r="747">
+    <row r="747" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I747" s="11"/>
     </row>
-    <row r="748">
+    <row r="748" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I748" s="11"/>
     </row>
-    <row r="749">
+    <row r="749" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I749" s="11"/>
     </row>
-    <row r="750">
+    <row r="750" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I750" s="11"/>
     </row>
-    <row r="751">
+    <row r="751" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I751" s="11"/>
     </row>
-    <row r="752">
+    <row r="752" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I752" s="11"/>
     </row>
-    <row r="753">
+    <row r="753" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I753" s="11"/>
     </row>
-    <row r="754">
+    <row r="754" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I754" s="11"/>
     </row>
-    <row r="755">
+    <row r="755" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I755" s="11"/>
     </row>
-    <row r="756">
+    <row r="756" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I756" s="11"/>
     </row>
-    <row r="757">
+    <row r="757" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I757" s="11"/>
     </row>
-    <row r="758">
+    <row r="758" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I758" s="11"/>
     </row>
-    <row r="759">
+    <row r="759" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I759" s="11"/>
     </row>
-    <row r="760">
+    <row r="760" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I760" s="11"/>
     </row>
-    <row r="761">
+    <row r="761" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I761" s="11"/>
     </row>
-    <row r="762">
+    <row r="762" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I762" s="11"/>
     </row>
-    <row r="763">
+    <row r="763" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I763" s="11"/>
     </row>
-    <row r="764">
+    <row r="764" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I764" s="11"/>
     </row>
-    <row r="765">
+    <row r="765" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I765" s="11"/>
     </row>
-    <row r="766">
+    <row r="766" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I766" s="11"/>
     </row>
-    <row r="767">
+    <row r="767" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I767" s="11"/>
     </row>
-    <row r="768">
+    <row r="768" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I768" s="11"/>
     </row>
-    <row r="769">
+    <row r="769" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I769" s="11"/>
     </row>
-    <row r="770">
+    <row r="770" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I770" s="11"/>
     </row>
-    <row r="771">
+    <row r="771" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I771" s="11"/>
     </row>
-    <row r="772">
+    <row r="772" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I772" s="11"/>
     </row>
-    <row r="773">
+    <row r="773" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I773" s="11"/>
     </row>
-    <row r="774">
+    <row r="774" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I774" s="11"/>
     </row>
-    <row r="775">
+    <row r="775" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I775" s="11"/>
     </row>
-    <row r="776">
+    <row r="776" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I776" s="11"/>
     </row>
-    <row r="777">
+    <row r="777" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I777" s="11"/>
     </row>
-    <row r="778">
+    <row r="778" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I778" s="11"/>
     </row>
-    <row r="779">
+    <row r="779" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I779" s="11"/>
     </row>
-    <row r="780">
+    <row r="780" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I780" s="11"/>
     </row>
-    <row r="781">
+    <row r="781" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I781" s="11"/>
     </row>
-    <row r="782">
+    <row r="782" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I782" s="11"/>
     </row>
-    <row r="783">
+    <row r="783" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I783" s="11"/>
     </row>
-    <row r="784">
+    <row r="784" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I784" s="11"/>
     </row>
-    <row r="785">
+    <row r="785" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I785" s="11"/>
     </row>
-    <row r="786">
+    <row r="786" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I786" s="11"/>
     </row>
-    <row r="787">
+    <row r="787" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I787" s="11"/>
     </row>
-    <row r="788">
+    <row r="788" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I788" s="11"/>
     </row>
-    <row r="789">
+    <row r="789" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I789" s="11"/>
     </row>
-    <row r="790">
+    <row r="790" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I790" s="11"/>
     </row>
-    <row r="791">
+    <row r="791" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I791" s="11"/>
     </row>
-    <row r="792">
+    <row r="792" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I792" s="11"/>
     </row>
-    <row r="793">
+    <row r="793" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I793" s="11"/>
     </row>
-    <row r="794">
+    <row r="794" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I794" s="11"/>
     </row>
-    <row r="795">
+    <row r="795" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I795" s="11"/>
     </row>
-    <row r="796">
+    <row r="796" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I796" s="11"/>
     </row>
-    <row r="797">
+    <row r="797" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I797" s="11"/>
     </row>
-    <row r="798">
+    <row r="798" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I798" s="11"/>
     </row>
-    <row r="799">
+    <row r="799" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I799" s="11"/>
     </row>
-    <row r="800">
+    <row r="800" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I800" s="11"/>
     </row>
-    <row r="801">
+    <row r="801" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I801" s="11"/>
     </row>
-    <row r="802">
+    <row r="802" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I802" s="11"/>
     </row>
-    <row r="803">
+    <row r="803" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I803" s="11"/>
     </row>
-    <row r="804">
+    <row r="804" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I804" s="11"/>
     </row>
-    <row r="805">
+    <row r="805" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I805" s="11"/>
     </row>
-    <row r="806">
+    <row r="806" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I806" s="11"/>
     </row>
-    <row r="807">
+    <row r="807" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I807" s="11"/>
     </row>
-    <row r="808">
+    <row r="808" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I808" s="11"/>
     </row>
-    <row r="809">
+    <row r="809" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I809" s="11"/>
     </row>
-    <row r="810">
+    <row r="810" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I810" s="11"/>
     </row>
-    <row r="811">
+    <row r="811" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I811" s="11"/>
     </row>
-    <row r="812">
+    <row r="812" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I812" s="11"/>
     </row>
-    <row r="813">
+    <row r="813" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I813" s="11"/>
     </row>
-    <row r="814">
+    <row r="814" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I814" s="11"/>
     </row>
-    <row r="815">
+    <row r="815" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I815" s="11"/>
     </row>
-    <row r="816">
+    <row r="816" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I816" s="11"/>
     </row>
-    <row r="817">
+    <row r="817" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I817" s="11"/>
     </row>
-    <row r="818">
+    <row r="818" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I818" s="11"/>
     </row>
-    <row r="819">
+    <row r="819" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I819" s="11"/>
     </row>
-    <row r="820">
+    <row r="820" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I820" s="11"/>
     </row>
-    <row r="821">
+    <row r="821" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I821" s="11"/>
     </row>
-    <row r="822">
+    <row r="822" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I822" s="11"/>
     </row>
-    <row r="823">
+    <row r="823" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I823" s="11"/>
     </row>
-    <row r="824">
+    <row r="824" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I824" s="11"/>
     </row>
-    <row r="825">
+    <row r="825" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I825" s="11"/>
     </row>
-    <row r="826">
+    <row r="826" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I826" s="11"/>
     </row>
-    <row r="827">
+    <row r="827" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I827" s="11"/>
     </row>
-    <row r="828">
+    <row r="828" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I828" s="11"/>
     </row>
-    <row r="829">
+    <row r="829" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I829" s="11"/>
     </row>
-    <row r="830">
+    <row r="830" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I830" s="11"/>
     </row>
-    <row r="831">
+    <row r="831" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I831" s="11"/>
     </row>
-    <row r="832">
+    <row r="832" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I832" s="11"/>
     </row>
-    <row r="833">
+    <row r="833" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I833" s="11"/>
     </row>
-    <row r="834">
+    <row r="834" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I834" s="11"/>
     </row>
-    <row r="835">
+    <row r="835" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I835" s="11"/>
     </row>
-    <row r="836">
+    <row r="836" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I836" s="11"/>
     </row>
-    <row r="837">
+    <row r="837" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I837" s="11"/>
     </row>
-    <row r="838">
+    <row r="838" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I838" s="11"/>
     </row>
-    <row r="839">
+    <row r="839" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I839" s="11"/>
     </row>
-    <row r="840">
+    <row r="840" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I840" s="11"/>
     </row>
-    <row r="841">
+    <row r="841" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I841" s="11"/>
     </row>
-    <row r="842">
+    <row r="842" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I842" s="11"/>
     </row>
-    <row r="843">
+    <row r="843" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I843" s="11"/>
     </row>
-    <row r="844">
+    <row r="844" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I844" s="11"/>
     </row>
-    <row r="845">
+    <row r="845" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I845" s="11"/>
     </row>
-    <row r="846">
+    <row r="846" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I846" s="11"/>
     </row>
-    <row r="847">
+    <row r="847" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I847" s="11"/>
     </row>
-    <row r="848">
+    <row r="848" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I848" s="11"/>
     </row>
-    <row r="849">
+    <row r="849" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I849" s="11"/>
     </row>
-    <row r="850">
+    <row r="850" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I850" s="11"/>
     </row>
-    <row r="851">
+    <row r="851" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I851" s="11"/>
     </row>
-    <row r="852">
+    <row r="852" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I852" s="11"/>
     </row>
-    <row r="853">
+    <row r="853" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I853" s="11"/>
     </row>
-    <row r="854">
+    <row r="854" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I854" s="11"/>
     </row>
-    <row r="855">
+    <row r="855" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I855" s="11"/>
     </row>
-    <row r="856">
+    <row r="856" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I856" s="11"/>
     </row>
-    <row r="857">
+    <row r="857" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I857" s="11"/>
     </row>
-    <row r="858">
+    <row r="858" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I858" s="11"/>
     </row>
-    <row r="859">
+    <row r="859" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I859" s="11"/>
     </row>
-    <row r="860">
+    <row r="860" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I860" s="11"/>
     </row>
-    <row r="861">
+    <row r="861" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I861" s="11"/>
     </row>
-    <row r="862">
+    <row r="862" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I862" s="11"/>
     </row>
-    <row r="863">
+    <row r="863" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I863" s="11"/>
     </row>
-    <row r="864">
+    <row r="864" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I864" s="11"/>
     </row>
-    <row r="865">
+    <row r="865" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I865" s="11"/>
     </row>
-    <row r="866">
+    <row r="866" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I866" s="11"/>
     </row>
-    <row r="867">
+    <row r="867" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I867" s="11"/>
     </row>
-    <row r="868">
+    <row r="868" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I868" s="11"/>
     </row>
-    <row r="869">
+    <row r="869" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I869" s="11"/>
     </row>
-    <row r="870">
+    <row r="870" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I870" s="11"/>
     </row>
-    <row r="871">
+    <row r="871" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I871" s="11"/>
     </row>
-    <row r="872">
+    <row r="872" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I872" s="11"/>
     </row>
-    <row r="873">
+    <row r="873" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I873" s="11"/>
     </row>
-    <row r="874">
+    <row r="874" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I874" s="11"/>
     </row>
-    <row r="875">
+    <row r="875" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I875" s="11"/>
     </row>
-    <row r="876">
+    <row r="876" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I876" s="11"/>
     </row>
-    <row r="877">
+    <row r="877" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I877" s="11"/>
     </row>
-    <row r="878">
+    <row r="878" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I878" s="11"/>
     </row>
-    <row r="879">
+    <row r="879" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I879" s="11"/>
     </row>
-    <row r="880">
+    <row r="880" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I880" s="11"/>
     </row>
-    <row r="881">
+    <row r="881" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I881" s="11"/>
     </row>
-    <row r="882">
+    <row r="882" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I882" s="11"/>
     </row>
-    <row r="883">
+    <row r="883" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I883" s="11"/>
     </row>
-    <row r="884">
+    <row r="884" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I884" s="11"/>
     </row>
-    <row r="885">
+    <row r="885" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I885" s="11"/>
     </row>
-    <row r="886">
+    <row r="886" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I886" s="11"/>
     </row>
-    <row r="887">
+    <row r="887" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I887" s="11"/>
     </row>
-    <row r="888">
+    <row r="888" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I888" s="11"/>
     </row>
-    <row r="889">
+    <row r="889" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I889" s="11"/>
     </row>
-    <row r="890">
+    <row r="890" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I890" s="11"/>
     </row>
-    <row r="891">
+    <row r="891" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I891" s="11"/>
     </row>
-    <row r="892">
+    <row r="892" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I892" s="11"/>
     </row>
-    <row r="893">
+    <row r="893" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I893" s="11"/>
     </row>
-    <row r="894">
+    <row r="894" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I894" s="11"/>
     </row>
-    <row r="895">
+    <row r="895" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I895" s="11"/>
     </row>
-    <row r="896">
+    <row r="896" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I896" s="11"/>
     </row>
-    <row r="897">
+    <row r="897" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I897" s="11"/>
     </row>
-    <row r="898">
+    <row r="898" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I898" s="11"/>
     </row>
-    <row r="899">
+    <row r="899" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I899" s="11"/>
     </row>
-    <row r="900">
+    <row r="900" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I900" s="11"/>
     </row>
-    <row r="901">
+    <row r="901" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I901" s="11"/>
     </row>
-    <row r="902">
+    <row r="902" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I902" s="11"/>
     </row>
-    <row r="903">
+    <row r="903" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I903" s="11"/>
     </row>
-    <row r="904">
+    <row r="904" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I904" s="11"/>
     </row>
-    <row r="905">
+    <row r="905" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I905" s="11"/>
     </row>
-    <row r="906">
+    <row r="906" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I906" s="11"/>
     </row>
-    <row r="907">
+    <row r="907" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I907" s="11"/>
     </row>
-    <row r="908">
+    <row r="908" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I908" s="11"/>
     </row>
-    <row r="909">
+    <row r="909" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I909" s="11"/>
     </row>
-    <row r="910">
+    <row r="910" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I910" s="11"/>
     </row>
-    <row r="911">
+    <row r="911" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I911" s="11"/>
     </row>
-    <row r="912">
+    <row r="912" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I912" s="11"/>
     </row>
-    <row r="913">
+    <row r="913" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I913" s="11"/>
     </row>
-    <row r="914">
+    <row r="914" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I914" s="11"/>
     </row>
-    <row r="915">
+    <row r="915" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I915" s="11"/>
     </row>
-    <row r="916">
+    <row r="916" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I916" s="11"/>
     </row>
-    <row r="917">
+    <row r="917" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I917" s="11"/>
     </row>
-    <row r="918">
+    <row r="918" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I918" s="11"/>
     </row>
-    <row r="919">
+    <row r="919" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I919" s="11"/>
     </row>
-    <row r="920">
+    <row r="920" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I920" s="11"/>
     </row>
-    <row r="921">
+    <row r="921" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I921" s="11"/>
     </row>
-    <row r="922">
+    <row r="922" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I922" s="11"/>
     </row>
-    <row r="923">
+    <row r="923" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I923" s="11"/>
     </row>
-    <row r="924">
+    <row r="924" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I924" s="11"/>
     </row>
-    <row r="925">
+    <row r="925" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I925" s="11"/>
     </row>
-    <row r="926">
+    <row r="926" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I926" s="11"/>
     </row>
-    <row r="927">
+    <row r="927" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I927" s="11"/>
     </row>
-    <row r="928">
+    <row r="928" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I928" s="11"/>
     </row>
-    <row r="929">
+    <row r="929" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I929" s="11"/>
     </row>
-    <row r="930">
+    <row r="930" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I930" s="11"/>
     </row>
-    <row r="931">
+    <row r="931" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I931" s="11"/>
     </row>
-    <row r="932">
+    <row r="932" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I932" s="11"/>
     </row>
-    <row r="933">
+    <row r="933" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I933" s="11"/>
     </row>
-    <row r="934">
+    <row r="934" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I934" s="11"/>
     </row>
-    <row r="935">
+    <row r="935" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I935" s="11"/>
     </row>
-    <row r="936">
+    <row r="936" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I936" s="11"/>
     </row>
-    <row r="937">
+    <row r="937" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I937" s="11"/>
     </row>
-    <row r="938">
+    <row r="938" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I938" s="11"/>
     </row>
-    <row r="939">
+    <row r="939" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I939" s="11"/>
     </row>
-    <row r="940">
+    <row r="940" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I940" s="11"/>
     </row>
-    <row r="941">
+    <row r="941" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I941" s="11"/>
     </row>
-    <row r="942">
+    <row r="942" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I942" s="11"/>
     </row>
-    <row r="943">
+    <row r="943" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I943" s="11"/>
     </row>
-    <row r="944">
+    <row r="944" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I944" s="11"/>
     </row>
-    <row r="945">
+    <row r="945" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I945" s="11"/>
     </row>
-    <row r="946">
+    <row r="946" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I946" s="11"/>
     </row>
-    <row r="947">
+    <row r="947" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I947" s="11"/>
     </row>
-    <row r="948">
+    <row r="948" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I948" s="11"/>
     </row>
-    <row r="949">
+    <row r="949" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I949" s="11"/>
     </row>
-    <row r="950">
+    <row r="950" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I950" s="11"/>
     </row>
-    <row r="951">
+    <row r="951" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I951" s="11"/>
     </row>
-    <row r="952">
+    <row r="952" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I952" s="11"/>
     </row>
-    <row r="953">
+    <row r="953" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I953" s="11"/>
     </row>
-    <row r="954">
+    <row r="954" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I954" s="11"/>
     </row>
-    <row r="955">
+    <row r="955" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I955" s="11"/>
     </row>
-    <row r="956">
+    <row r="956" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I956" s="11"/>
     </row>
-    <row r="957">
+    <row r="957" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I957" s="11"/>
     </row>
-    <row r="958">
+    <row r="958" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I958" s="11"/>
     </row>
-    <row r="959">
+    <row r="959" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I959" s="11"/>
     </row>
-    <row r="960">
+    <row r="960" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I960" s="11"/>
     </row>
-    <row r="961">
+    <row r="961" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I961" s="11"/>
     </row>
-    <row r="962">
+    <row r="962" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I962" s="11"/>
     </row>
-    <row r="963">
+    <row r="963" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I963" s="11"/>
     </row>
-    <row r="964">
+    <row r="964" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I964" s="11"/>
     </row>
-    <row r="965">
+    <row r="965" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I965" s="11"/>
     </row>
-    <row r="966">
+    <row r="966" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I966" s="11"/>
     </row>
-    <row r="967">
+    <row r="967" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I967" s="11"/>
     </row>
-    <row r="968">
+    <row r="968" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I968" s="11"/>
     </row>
-    <row r="969">
+    <row r="969" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I969" s="11"/>
     </row>
-    <row r="970">
+    <row r="970" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I970" s="11"/>
     </row>
-    <row r="971">
+    <row r="971" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I971" s="11"/>
     </row>
-    <row r="972">
+    <row r="972" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I972" s="11"/>
     </row>
-    <row r="973">
+    <row r="973" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I973" s="11"/>
     </row>
-    <row r="974">
+    <row r="974" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I974" s="11"/>
     </row>
-    <row r="975">
+    <row r="975" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I975" s="11"/>
     </row>
-    <row r="976">
+    <row r="976" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I976" s="11"/>
     </row>
-    <row r="977">
+    <row r="977" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I977" s="11"/>
     </row>
-    <row r="978">
+    <row r="978" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I978" s="11"/>
     </row>
-    <row r="979">
+    <row r="979" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I979" s="11"/>
     </row>
-    <row r="980">
+    <row r="980" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I980" s="11"/>
     </row>
-    <row r="981">
+    <row r="981" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I981" s="11"/>
     </row>
-    <row r="982">
+    <row r="982" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I982" s="11"/>
     </row>
-    <row r="983">
+    <row r="983" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I983" s="11"/>
     </row>
-    <row r="984">
+    <row r="984" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I984" s="11"/>
     </row>
-    <row r="985">
+    <row r="985" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I985" s="11"/>
     </row>
-    <row r="986">
+    <row r="986" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I986" s="11"/>
     </row>
-    <row r="987">
+    <row r="987" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I987" s="11"/>
     </row>
-    <row r="988">
+    <row r="988" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I988" s="11"/>
     </row>
-    <row r="989">
+    <row r="989" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I989" s="11"/>
     </row>
-    <row r="990">
+    <row r="990" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I990" s="11"/>
     </row>
-    <row r="991">
+    <row r="991" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I991" s="11"/>
     </row>
-    <row r="992">
+    <row r="992" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I992" s="11"/>
     </row>
-    <row r="993">
+    <row r="993" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I993" s="11"/>
     </row>
-    <row r="994">
+    <row r="994" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I994" s="11"/>
     </row>
-    <row r="995">
+    <row r="995" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I995" s="11"/>
     </row>
-    <row r="996">
+    <row r="996" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I996" s="11"/>
     </row>
-    <row r="997">
+    <row r="997" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I997" s="11"/>
     </row>
-    <row r="998">
+    <row r="998" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I998" s="11"/>
     </row>
-    <row r="999">
+    <row r="999" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I999" s="11"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="I1000" s="11"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/SIQ.0.1.xlsx
+++ b/Documents/SIQ.0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI\GitHub Embedded\DDM\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Project Managment\DDM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -322,9 +322,6 @@
     <t>what is the acception criteria to you ?</t>
   </si>
   <si>
-    <t>need to be answered</t>
-  </si>
-  <si>
     <t>Mona Ahmed</t>
   </si>
   <si>
@@ -371,6 +368,18 @@
   </si>
   <si>
     <t>testtt</t>
+  </si>
+  <si>
+    <t>SIQ_27</t>
+  </si>
+  <si>
+    <t>the message when object isn't in the measurable area or not put ?</t>
+  </si>
+  <si>
+    <t>14/4/2018</t>
+  </si>
+  <si>
+    <t>"Undefined Object"</t>
   </si>
 </sst>
 </file>
@@ -407,7 +416,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,12 +453,6 @@
         <bgColor rgb="FF6AA84F"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor rgb="FFC9DAF8"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -465,9 +468,6 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -487,23 +487,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -513,6 +501,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,15 +800,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="E21" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="46.5703125" customWidth="1"/>
     <col min="3" max="3" width="35.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="18" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
@@ -823,7 +826,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -832,3704 +835,3724 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="11"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:26" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="11"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="10">
+        <v>43135</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+    </row>
+    <row r="24" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G24" s="10">
         <v>43135</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-    </row>
-    <row r="24" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="H24" s="8"/>
+      <c r="I24" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="14" t="s">
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+    </row>
+    <row r="25" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="10">
+        <v>43135</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="15">
-        <v>43135</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-    </row>
-    <row r="25" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="14" t="s">
+      <c r="F26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="13">
+        <v>43163</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="15">
-        <v>43135</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="G27" s="13">
+        <v>43194</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="18">
-        <v>43163</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="18">
-        <v>43194</v>
-      </c>
-      <c r="I27" s="7" t="s">
+      <c r="F28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="11"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I30" s="11"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I31" s="11"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I32" s="11"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I33" s="11"/>
+      <c r="I33" s="9"/>
     </row>
     <row r="34" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I34" s="11"/>
+      <c r="I34" s="9"/>
     </row>
     <row r="35" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I35" s="11"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I36" s="11"/>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I37" s="11"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I38" s="11"/>
+      <c r="I38" s="9"/>
     </row>
     <row r="39" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I39" s="11"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I40" s="11"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="41" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I41" s="11"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I42" s="11"/>
+      <c r="I42" s="9"/>
     </row>
     <row r="43" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I43" s="11"/>
+      <c r="I43" s="9"/>
     </row>
     <row r="44" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I44" s="11"/>
+      <c r="I44" s="9"/>
     </row>
     <row r="45" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I45" s="11"/>
+      <c r="I45" s="9"/>
     </row>
     <row r="46" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I46" s="11"/>
+      <c r="I46" s="9"/>
     </row>
     <row r="47" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I47" s="11"/>
+      <c r="I47" s="9"/>
     </row>
     <row r="48" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I48" s="11"/>
+      <c r="I48" s="9"/>
     </row>
     <row r="49" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I49" s="11"/>
+      <c r="I49" s="9"/>
     </row>
     <row r="50" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I50" s="11"/>
+      <c r="I50" s="9"/>
     </row>
     <row r="51" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I51" s="11"/>
+      <c r="I51" s="9"/>
     </row>
     <row r="52" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I52" s="11"/>
+      <c r="I52" s="9"/>
     </row>
     <row r="53" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I53" s="11"/>
+      <c r="I53" s="9"/>
     </row>
     <row r="54" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I54" s="11"/>
+      <c r="I54" s="9"/>
     </row>
     <row r="55" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I55" s="11"/>
+      <c r="I55" s="9"/>
     </row>
     <row r="56" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I56" s="11"/>
+      <c r="I56" s="9"/>
     </row>
     <row r="57" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I57" s="11"/>
+      <c r="I57" s="9"/>
     </row>
     <row r="58" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I58" s="11"/>
+      <c r="I58" s="9"/>
     </row>
     <row r="59" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I59" s="11"/>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I60" s="11"/>
+      <c r="I60" s="9"/>
     </row>
     <row r="61" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I61" s="11"/>
+      <c r="I61" s="9"/>
     </row>
     <row r="62" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I62" s="11"/>
+      <c r="I62" s="9"/>
     </row>
     <row r="63" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I63" s="11"/>
+      <c r="I63" s="9"/>
     </row>
     <row r="64" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I64" s="11"/>
+      <c r="I64" s="9"/>
     </row>
     <row r="65" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I65" s="11"/>
+      <c r="I65" s="9"/>
     </row>
     <row r="66" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I66" s="11"/>
+      <c r="I66" s="9"/>
     </row>
     <row r="67" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I67" s="11"/>
+      <c r="I67" s="9"/>
     </row>
     <row r="68" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I68" s="11"/>
+      <c r="I68" s="9"/>
     </row>
     <row r="69" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I69" s="11"/>
+      <c r="I69" s="9"/>
     </row>
     <row r="70" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I70" s="11"/>
+      <c r="I70" s="9"/>
     </row>
     <row r="71" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I71" s="11"/>
+      <c r="I71" s="9"/>
     </row>
     <row r="72" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I72" s="11"/>
+      <c r="I72" s="9"/>
     </row>
     <row r="73" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I73" s="11"/>
+      <c r="I73" s="9"/>
     </row>
     <row r="74" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I74" s="11"/>
+      <c r="I74" s="9"/>
     </row>
     <row r="75" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I75" s="11"/>
+      <c r="I75" s="9"/>
     </row>
     <row r="76" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I76" s="11"/>
+      <c r="I76" s="9"/>
     </row>
     <row r="77" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I77" s="11"/>
+      <c r="I77" s="9"/>
     </row>
     <row r="78" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I78" s="11"/>
+      <c r="I78" s="9"/>
     </row>
     <row r="79" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I79" s="11"/>
+      <c r="I79" s="9"/>
     </row>
     <row r="80" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I80" s="11"/>
+      <c r="I80" s="9"/>
     </row>
     <row r="81" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I81" s="11"/>
+      <c r="I81" s="9"/>
     </row>
     <row r="82" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I82" s="11"/>
+      <c r="I82" s="9"/>
     </row>
     <row r="83" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I83" s="11"/>
+      <c r="I83" s="9"/>
     </row>
     <row r="84" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I84" s="11"/>
+      <c r="I84" s="9"/>
     </row>
     <row r="85" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I85" s="11"/>
+      <c r="I85" s="9"/>
     </row>
     <row r="86" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I86" s="11"/>
+      <c r="I86" s="9"/>
     </row>
     <row r="87" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I87" s="11"/>
+      <c r="I87" s="9"/>
     </row>
     <row r="88" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I88" s="11"/>
+      <c r="I88" s="9"/>
     </row>
     <row r="89" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I89" s="11"/>
+      <c r="I89" s="9"/>
     </row>
     <row r="90" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I90" s="11"/>
+      <c r="I90" s="9"/>
     </row>
     <row r="91" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I91" s="11"/>
+      <c r="I91" s="9"/>
     </row>
     <row r="92" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I92" s="11"/>
+      <c r="I92" s="9"/>
     </row>
     <row r="93" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I93" s="11"/>
+      <c r="I93" s="9"/>
     </row>
     <row r="94" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I94" s="11"/>
+      <c r="I94" s="9"/>
     </row>
     <row r="95" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I95" s="11"/>
+      <c r="I95" s="9"/>
     </row>
     <row r="96" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I96" s="11"/>
+      <c r="I96" s="9"/>
     </row>
     <row r="97" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I97" s="11"/>
+      <c r="I97" s="9"/>
     </row>
     <row r="98" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I98" s="11"/>
+      <c r="I98" s="9"/>
     </row>
     <row r="99" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I99" s="11"/>
+      <c r="I99" s="9"/>
     </row>
     <row r="100" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I100" s="11"/>
+      <c r="I100" s="9"/>
     </row>
     <row r="101" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I101" s="11"/>
+      <c r="I101" s="9"/>
     </row>
     <row r="102" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I102" s="11"/>
+      <c r="I102" s="9"/>
     </row>
     <row r="103" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I103" s="11"/>
+      <c r="I103" s="9"/>
     </row>
     <row r="104" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I104" s="11"/>
+      <c r="I104" s="9"/>
     </row>
     <row r="105" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I105" s="11"/>
+      <c r="I105" s="9"/>
     </row>
     <row r="106" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I106" s="11"/>
+      <c r="I106" s="9"/>
     </row>
     <row r="107" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I107" s="11"/>
+      <c r="I107" s="9"/>
     </row>
     <row r="108" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I108" s="11"/>
+      <c r="I108" s="9"/>
     </row>
     <row r="109" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I109" s="11"/>
+      <c r="I109" s="9"/>
     </row>
     <row r="110" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I110" s="11"/>
+      <c r="I110" s="9"/>
     </row>
     <row r="111" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I111" s="11"/>
+      <c r="I111" s="9"/>
     </row>
     <row r="112" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I112" s="11"/>
+      <c r="I112" s="9"/>
     </row>
     <row r="113" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I113" s="11"/>
+      <c r="I113" s="9"/>
     </row>
     <row r="114" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I114" s="11"/>
+      <c r="I114" s="9"/>
     </row>
     <row r="115" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I115" s="11"/>
+      <c r="I115" s="9"/>
     </row>
     <row r="116" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I116" s="11"/>
+      <c r="I116" s="9"/>
     </row>
     <row r="117" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I117" s="11"/>
+      <c r="I117" s="9"/>
     </row>
     <row r="118" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I118" s="11"/>
+      <c r="I118" s="9"/>
     </row>
     <row r="119" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I119" s="11"/>
+      <c r="I119" s="9"/>
     </row>
     <row r="120" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I120" s="11"/>
+      <c r="I120" s="9"/>
     </row>
     <row r="121" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I121" s="11"/>
+      <c r="I121" s="9"/>
     </row>
     <row r="122" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I122" s="11"/>
+      <c r="I122" s="9"/>
     </row>
     <row r="123" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I123" s="11"/>
+      <c r="I123" s="9"/>
     </row>
     <row r="124" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I124" s="11"/>
+      <c r="I124" s="9"/>
     </row>
     <row r="125" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I125" s="11"/>
+      <c r="I125" s="9"/>
     </row>
     <row r="126" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I126" s="11"/>
+      <c r="I126" s="9"/>
     </row>
     <row r="127" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I127" s="11"/>
+      <c r="I127" s="9"/>
     </row>
     <row r="128" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I128" s="11"/>
+      <c r="I128" s="9"/>
     </row>
     <row r="129" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I129" s="11"/>
+      <c r="I129" s="9"/>
     </row>
     <row r="130" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I130" s="11"/>
+      <c r="I130" s="9"/>
     </row>
     <row r="131" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I131" s="11"/>
+      <c r="I131" s="9"/>
     </row>
     <row r="132" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I132" s="11"/>
+      <c r="I132" s="9"/>
     </row>
     <row r="133" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I133" s="11"/>
+      <c r="I133" s="9"/>
     </row>
     <row r="134" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I134" s="11"/>
+      <c r="I134" s="9"/>
     </row>
     <row r="135" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I135" s="11"/>
+      <c r="I135" s="9"/>
     </row>
     <row r="136" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I136" s="11"/>
+      <c r="I136" s="9"/>
     </row>
     <row r="137" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I137" s="11"/>
+      <c r="I137" s="9"/>
     </row>
     <row r="138" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I138" s="11"/>
+      <c r="I138" s="9"/>
     </row>
     <row r="139" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I139" s="11"/>
+      <c r="I139" s="9"/>
     </row>
     <row r="140" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I140" s="11"/>
+      <c r="I140" s="9"/>
     </row>
     <row r="141" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I141" s="11"/>
+      <c r="I141" s="9"/>
     </row>
     <row r="142" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I142" s="11"/>
+      <c r="I142" s="9"/>
     </row>
     <row r="143" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I143" s="11"/>
+      <c r="I143" s="9"/>
     </row>
     <row r="144" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I144" s="11"/>
+      <c r="I144" s="9"/>
     </row>
     <row r="145" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I145" s="11"/>
+      <c r="I145" s="9"/>
     </row>
     <row r="146" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I146" s="11"/>
+      <c r="I146" s="9"/>
     </row>
     <row r="147" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I147" s="11"/>
+      <c r="I147" s="9"/>
     </row>
     <row r="148" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I148" s="11"/>
+      <c r="I148" s="9"/>
     </row>
     <row r="149" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I149" s="11"/>
+      <c r="I149" s="9"/>
     </row>
     <row r="150" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I150" s="11"/>
+      <c r="I150" s="9"/>
     </row>
     <row r="151" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I151" s="11"/>
+      <c r="I151" s="9"/>
     </row>
     <row r="152" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I152" s="11"/>
+      <c r="I152" s="9"/>
     </row>
     <row r="153" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I153" s="11"/>
+      <c r="I153" s="9"/>
     </row>
     <row r="154" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I154" s="11"/>
+      <c r="I154" s="9"/>
     </row>
     <row r="155" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I155" s="11"/>
+      <c r="I155" s="9"/>
     </row>
     <row r="156" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I156" s="11"/>
+      <c r="I156" s="9"/>
     </row>
     <row r="157" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I157" s="11"/>
+      <c r="I157" s="9"/>
     </row>
     <row r="158" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I158" s="11"/>
+      <c r="I158" s="9"/>
     </row>
     <row r="159" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I159" s="11"/>
+      <c r="I159" s="9"/>
     </row>
     <row r="160" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I160" s="11"/>
+      <c r="I160" s="9"/>
     </row>
     <row r="161" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I161" s="11"/>
+      <c r="I161" s="9"/>
     </row>
     <row r="162" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I162" s="11"/>
+      <c r="I162" s="9"/>
     </row>
     <row r="163" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I163" s="11"/>
+      <c r="I163" s="9"/>
     </row>
     <row r="164" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I164" s="11"/>
+      <c r="I164" s="9"/>
     </row>
     <row r="165" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I165" s="11"/>
+      <c r="I165" s="9"/>
     </row>
     <row r="166" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I166" s="11"/>
+      <c r="I166" s="9"/>
     </row>
     <row r="167" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I167" s="11"/>
+      <c r="I167" s="9"/>
     </row>
     <row r="168" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I168" s="11"/>
+      <c r="I168" s="9"/>
     </row>
     <row r="169" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I169" s="11"/>
+      <c r="I169" s="9"/>
     </row>
     <row r="170" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I170" s="11"/>
+      <c r="I170" s="9"/>
     </row>
     <row r="171" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I171" s="11"/>
+      <c r="I171" s="9"/>
     </row>
     <row r="172" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I172" s="11"/>
+      <c r="I172" s="9"/>
     </row>
     <row r="173" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I173" s="11"/>
+      <c r="I173" s="9"/>
     </row>
     <row r="174" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I174" s="11"/>
+      <c r="I174" s="9"/>
     </row>
     <row r="175" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I175" s="11"/>
+      <c r="I175" s="9"/>
     </row>
     <row r="176" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I176" s="11"/>
+      <c r="I176" s="9"/>
     </row>
     <row r="177" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I177" s="11"/>
+      <c r="I177" s="9"/>
     </row>
     <row r="178" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I178" s="11"/>
+      <c r="I178" s="9"/>
     </row>
     <row r="179" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I179" s="11"/>
+      <c r="I179" s="9"/>
     </row>
     <row r="180" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I180" s="11"/>
+      <c r="I180" s="9"/>
     </row>
     <row r="181" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I181" s="11"/>
+      <c r="I181" s="9"/>
     </row>
     <row r="182" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I182" s="11"/>
+      <c r="I182" s="9"/>
     </row>
     <row r="183" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I183" s="11"/>
+      <c r="I183" s="9"/>
     </row>
     <row r="184" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I184" s="11"/>
+      <c r="I184" s="9"/>
     </row>
     <row r="185" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I185" s="11"/>
+      <c r="I185" s="9"/>
     </row>
     <row r="186" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I186" s="11"/>
+      <c r="I186" s="9"/>
     </row>
     <row r="187" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I187" s="11"/>
+      <c r="I187" s="9"/>
     </row>
     <row r="188" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I188" s="11"/>
+      <c r="I188" s="9"/>
     </row>
     <row r="189" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I189" s="11"/>
+      <c r="I189" s="9"/>
     </row>
     <row r="190" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I190" s="11"/>
+      <c r="I190" s="9"/>
     </row>
     <row r="191" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I191" s="11"/>
+      <c r="I191" s="9"/>
     </row>
     <row r="192" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I192" s="11"/>
+      <c r="I192" s="9"/>
     </row>
     <row r="193" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I193" s="11"/>
+      <c r="I193" s="9"/>
     </row>
     <row r="194" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I194" s="11"/>
+      <c r="I194" s="9"/>
     </row>
     <row r="195" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I195" s="11"/>
+      <c r="I195" s="9"/>
     </row>
     <row r="196" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I196" s="11"/>
+      <c r="I196" s="9"/>
     </row>
     <row r="197" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I197" s="11"/>
+      <c r="I197" s="9"/>
     </row>
     <row r="198" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I198" s="11"/>
+      <c r="I198" s="9"/>
     </row>
     <row r="199" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I199" s="11"/>
+      <c r="I199" s="9"/>
     </row>
     <row r="200" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I200" s="11"/>
+      <c r="I200" s="9"/>
     </row>
     <row r="201" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I201" s="11"/>
+      <c r="I201" s="9"/>
     </row>
     <row r="202" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I202" s="11"/>
+      <c r="I202" s="9"/>
     </row>
     <row r="203" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I203" s="11"/>
+      <c r="I203" s="9"/>
     </row>
     <row r="204" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I204" s="11"/>
+      <c r="I204" s="9"/>
     </row>
     <row r="205" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I205" s="11"/>
+      <c r="I205" s="9"/>
     </row>
     <row r="206" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I206" s="11"/>
+      <c r="I206" s="9"/>
     </row>
     <row r="207" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I207" s="11"/>
+      <c r="I207" s="9"/>
     </row>
     <row r="208" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I208" s="11"/>
+      <c r="I208" s="9"/>
     </row>
     <row r="209" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I209" s="11"/>
+      <c r="I209" s="9"/>
     </row>
     <row r="210" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I210" s="11"/>
+      <c r="I210" s="9"/>
     </row>
     <row r="211" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I211" s="11"/>
+      <c r="I211" s="9"/>
     </row>
     <row r="212" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I212" s="11"/>
+      <c r="I212" s="9"/>
     </row>
     <row r="213" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I213" s="11"/>
+      <c r="I213" s="9"/>
     </row>
     <row r="214" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I214" s="11"/>
+      <c r="I214" s="9"/>
     </row>
     <row r="215" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I215" s="11"/>
+      <c r="I215" s="9"/>
     </row>
     <row r="216" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I216" s="11"/>
+      <c r="I216" s="9"/>
     </row>
     <row r="217" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I217" s="11"/>
+      <c r="I217" s="9"/>
     </row>
     <row r="218" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I218" s="11"/>
+      <c r="I218" s="9"/>
     </row>
     <row r="219" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I219" s="11"/>
+      <c r="I219" s="9"/>
     </row>
     <row r="220" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I220" s="11"/>
+      <c r="I220" s="9"/>
     </row>
     <row r="221" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I221" s="11"/>
+      <c r="I221" s="9"/>
     </row>
     <row r="222" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I222" s="11"/>
+      <c r="I222" s="9"/>
     </row>
     <row r="223" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I223" s="11"/>
+      <c r="I223" s="9"/>
     </row>
     <row r="224" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I224" s="11"/>
+      <c r="I224" s="9"/>
     </row>
     <row r="225" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I225" s="11"/>
+      <c r="I225" s="9"/>
     </row>
     <row r="226" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I226" s="11"/>
+      <c r="I226" s="9"/>
     </row>
     <row r="227" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I227" s="11"/>
+      <c r="I227" s="9"/>
     </row>
     <row r="228" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I228" s="11"/>
+      <c r="I228" s="9"/>
     </row>
     <row r="229" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I229" s="11"/>
+      <c r="I229" s="9"/>
     </row>
     <row r="230" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I230" s="11"/>
+      <c r="I230" s="9"/>
     </row>
     <row r="231" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I231" s="11"/>
+      <c r="I231" s="9"/>
     </row>
     <row r="232" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I232" s="11"/>
+      <c r="I232" s="9"/>
     </row>
     <row r="233" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I233" s="11"/>
+      <c r="I233" s="9"/>
     </row>
     <row r="234" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I234" s="11"/>
+      <c r="I234" s="9"/>
     </row>
     <row r="235" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I235" s="11"/>
+      <c r="I235" s="9"/>
     </row>
     <row r="236" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I236" s="11"/>
+      <c r="I236" s="9"/>
     </row>
     <row r="237" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I237" s="11"/>
+      <c r="I237" s="9"/>
     </row>
     <row r="238" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I238" s="11"/>
+      <c r="I238" s="9"/>
     </row>
     <row r="239" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I239" s="11"/>
+      <c r="I239" s="9"/>
     </row>
     <row r="240" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I240" s="11"/>
+      <c r="I240" s="9"/>
     </row>
     <row r="241" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I241" s="11"/>
+      <c r="I241" s="9"/>
     </row>
     <row r="242" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I242" s="11"/>
+      <c r="I242" s="9"/>
     </row>
     <row r="243" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I243" s="11"/>
+      <c r="I243" s="9"/>
     </row>
     <row r="244" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I244" s="11"/>
+      <c r="I244" s="9"/>
     </row>
     <row r="245" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I245" s="11"/>
+      <c r="I245" s="9"/>
     </row>
     <row r="246" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I246" s="11"/>
+      <c r="I246" s="9"/>
     </row>
     <row r="247" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I247" s="11"/>
+      <c r="I247" s="9"/>
     </row>
     <row r="248" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I248" s="11"/>
+      <c r="I248" s="9"/>
     </row>
     <row r="249" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I249" s="11"/>
+      <c r="I249" s="9"/>
     </row>
     <row r="250" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I250" s="11"/>
+      <c r="I250" s="9"/>
     </row>
     <row r="251" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I251" s="11"/>
+      <c r="I251" s="9"/>
     </row>
     <row r="252" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I252" s="11"/>
+      <c r="I252" s="9"/>
     </row>
     <row r="253" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I253" s="11"/>
+      <c r="I253" s="9"/>
     </row>
     <row r="254" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I254" s="11"/>
+      <c r="I254" s="9"/>
     </row>
     <row r="255" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I255" s="11"/>
+      <c r="I255" s="9"/>
     </row>
     <row r="256" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I256" s="11"/>
+      <c r="I256" s="9"/>
     </row>
     <row r="257" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I257" s="11"/>
+      <c r="I257" s="9"/>
     </row>
     <row r="258" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I258" s="11"/>
+      <c r="I258" s="9"/>
     </row>
     <row r="259" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I259" s="11"/>
+      <c r="I259" s="9"/>
     </row>
     <row r="260" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I260" s="11"/>
+      <c r="I260" s="9"/>
     </row>
     <row r="261" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I261" s="11"/>
+      <c r="I261" s="9"/>
     </row>
     <row r="262" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I262" s="11"/>
+      <c r="I262" s="9"/>
     </row>
     <row r="263" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I263" s="11"/>
+      <c r="I263" s="9"/>
     </row>
     <row r="264" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I264" s="11"/>
+      <c r="I264" s="9"/>
     </row>
     <row r="265" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I265" s="11"/>
+      <c r="I265" s="9"/>
     </row>
     <row r="266" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I266" s="11"/>
+      <c r="I266" s="9"/>
     </row>
     <row r="267" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I267" s="11"/>
+      <c r="I267" s="9"/>
     </row>
     <row r="268" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I268" s="11"/>
+      <c r="I268" s="9"/>
     </row>
     <row r="269" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I269" s="11"/>
+      <c r="I269" s="9"/>
     </row>
     <row r="270" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I270" s="11"/>
+      <c r="I270" s="9"/>
     </row>
     <row r="271" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I271" s="11"/>
+      <c r="I271" s="9"/>
     </row>
     <row r="272" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I272" s="11"/>
+      <c r="I272" s="9"/>
     </row>
     <row r="273" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I273" s="11"/>
+      <c r="I273" s="9"/>
     </row>
     <row r="274" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I274" s="11"/>
+      <c r="I274" s="9"/>
     </row>
     <row r="275" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I275" s="11"/>
+      <c r="I275" s="9"/>
     </row>
     <row r="276" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I276" s="11"/>
+      <c r="I276" s="9"/>
     </row>
     <row r="277" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I277" s="11"/>
+      <c r="I277" s="9"/>
     </row>
     <row r="278" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I278" s="11"/>
+      <c r="I278" s="9"/>
     </row>
     <row r="279" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I279" s="11"/>
+      <c r="I279" s="9"/>
     </row>
     <row r="280" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I280" s="11"/>
+      <c r="I280" s="9"/>
     </row>
     <row r="281" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I281" s="11"/>
+      <c r="I281" s="9"/>
     </row>
     <row r="282" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I282" s="11"/>
+      <c r="I282" s="9"/>
     </row>
     <row r="283" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I283" s="11"/>
+      <c r="I283" s="9"/>
     </row>
     <row r="284" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I284" s="11"/>
+      <c r="I284" s="9"/>
     </row>
     <row r="285" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I285" s="11"/>
+      <c r="I285" s="9"/>
     </row>
     <row r="286" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I286" s="11"/>
+      <c r="I286" s="9"/>
     </row>
     <row r="287" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I287" s="11"/>
+      <c r="I287" s="9"/>
     </row>
     <row r="288" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I288" s="11"/>
+      <c r="I288" s="9"/>
     </row>
     <row r="289" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I289" s="11"/>
+      <c r="I289" s="9"/>
     </row>
     <row r="290" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I290" s="11"/>
+      <c r="I290" s="9"/>
     </row>
     <row r="291" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I291" s="11"/>
+      <c r="I291" s="9"/>
     </row>
     <row r="292" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I292" s="11"/>
+      <c r="I292" s="9"/>
     </row>
     <row r="293" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I293" s="11"/>
+      <c r="I293" s="9"/>
     </row>
     <row r="294" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I294" s="11"/>
+      <c r="I294" s="9"/>
     </row>
     <row r="295" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I295" s="11"/>
+      <c r="I295" s="9"/>
     </row>
     <row r="296" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I296" s="11"/>
+      <c r="I296" s="9"/>
     </row>
     <row r="297" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I297" s="11"/>
+      <c r="I297" s="9"/>
     </row>
     <row r="298" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I298" s="11"/>
+      <c r="I298" s="9"/>
     </row>
     <row r="299" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I299" s="11"/>
+      <c r="I299" s="9"/>
     </row>
     <row r="300" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I300" s="11"/>
+      <c r="I300" s="9"/>
     </row>
     <row r="301" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I301" s="11"/>
+      <c r="I301" s="9"/>
     </row>
     <row r="302" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I302" s="11"/>
+      <c r="I302" s="9"/>
     </row>
     <row r="303" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I303" s="11"/>
+      <c r="I303" s="9"/>
     </row>
     <row r="304" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I304" s="11"/>
+      <c r="I304" s="9"/>
     </row>
     <row r="305" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I305" s="11"/>
+      <c r="I305" s="9"/>
     </row>
     <row r="306" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I306" s="11"/>
+      <c r="I306" s="9"/>
     </row>
     <row r="307" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I307" s="11"/>
+      <c r="I307" s="9"/>
     </row>
     <row r="308" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I308" s="11"/>
+      <c r="I308" s="9"/>
     </row>
     <row r="309" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I309" s="11"/>
+      <c r="I309" s="9"/>
     </row>
     <row r="310" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I310" s="11"/>
+      <c r="I310" s="9"/>
     </row>
     <row r="311" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I311" s="11"/>
+      <c r="I311" s="9"/>
     </row>
     <row r="312" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I312" s="11"/>
+      <c r="I312" s="9"/>
     </row>
     <row r="313" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I313" s="11"/>
+      <c r="I313" s="9"/>
     </row>
     <row r="314" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I314" s="11"/>
+      <c r="I314" s="9"/>
     </row>
     <row r="315" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I315" s="11"/>
+      <c r="I315" s="9"/>
     </row>
     <row r="316" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I316" s="11"/>
+      <c r="I316" s="9"/>
     </row>
     <row r="317" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I317" s="11"/>
+      <c r="I317" s="9"/>
     </row>
     <row r="318" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I318" s="11"/>
+      <c r="I318" s="9"/>
     </row>
     <row r="319" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I319" s="11"/>
+      <c r="I319" s="9"/>
     </row>
     <row r="320" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I320" s="11"/>
+      <c r="I320" s="9"/>
     </row>
     <row r="321" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I321" s="11"/>
+      <c r="I321" s="9"/>
     </row>
     <row r="322" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I322" s="11"/>
+      <c r="I322" s="9"/>
     </row>
     <row r="323" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I323" s="11"/>
+      <c r="I323" s="9"/>
     </row>
     <row r="324" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I324" s="11"/>
+      <c r="I324" s="9"/>
     </row>
     <row r="325" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I325" s="11"/>
+      <c r="I325" s="9"/>
     </row>
     <row r="326" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I326" s="11"/>
+      <c r="I326" s="9"/>
     </row>
     <row r="327" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I327" s="11"/>
+      <c r="I327" s="9"/>
     </row>
     <row r="328" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I328" s="11"/>
+      <c r="I328" s="9"/>
     </row>
     <row r="329" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I329" s="11"/>
+      <c r="I329" s="9"/>
     </row>
     <row r="330" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I330" s="11"/>
+      <c r="I330" s="9"/>
     </row>
     <row r="331" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I331" s="11"/>
+      <c r="I331" s="9"/>
     </row>
     <row r="332" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I332" s="11"/>
+      <c r="I332" s="9"/>
     </row>
     <row r="333" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I333" s="11"/>
+      <c r="I333" s="9"/>
     </row>
     <row r="334" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I334" s="11"/>
+      <c r="I334" s="9"/>
     </row>
     <row r="335" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I335" s="11"/>
+      <c r="I335" s="9"/>
     </row>
     <row r="336" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I336" s="11"/>
+      <c r="I336" s="9"/>
     </row>
     <row r="337" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I337" s="11"/>
+      <c r="I337" s="9"/>
     </row>
     <row r="338" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I338" s="11"/>
+      <c r="I338" s="9"/>
     </row>
     <row r="339" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I339" s="11"/>
+      <c r="I339" s="9"/>
     </row>
     <row r="340" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I340" s="11"/>
+      <c r="I340" s="9"/>
     </row>
     <row r="341" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I341" s="11"/>
+      <c r="I341" s="9"/>
     </row>
     <row r="342" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I342" s="11"/>
+      <c r="I342" s="9"/>
     </row>
     <row r="343" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I343" s="11"/>
+      <c r="I343" s="9"/>
     </row>
     <row r="344" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I344" s="11"/>
+      <c r="I344" s="9"/>
     </row>
     <row r="345" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I345" s="11"/>
+      <c r="I345" s="9"/>
     </row>
     <row r="346" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I346" s="11"/>
+      <c r="I346" s="9"/>
     </row>
     <row r="347" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I347" s="11"/>
+      <c r="I347" s="9"/>
     </row>
     <row r="348" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I348" s="11"/>
+      <c r="I348" s="9"/>
     </row>
     <row r="349" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I349" s="11"/>
+      <c r="I349" s="9"/>
     </row>
     <row r="350" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I350" s="11"/>
+      <c r="I350" s="9"/>
     </row>
     <row r="351" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I351" s="11"/>
+      <c r="I351" s="9"/>
     </row>
     <row r="352" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I352" s="11"/>
+      <c r="I352" s="9"/>
     </row>
     <row r="353" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I353" s="11"/>
+      <c r="I353" s="9"/>
     </row>
     <row r="354" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I354" s="11"/>
+      <c r="I354" s="9"/>
     </row>
     <row r="355" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I355" s="11"/>
+      <c r="I355" s="9"/>
     </row>
     <row r="356" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I356" s="11"/>
+      <c r="I356" s="9"/>
     </row>
     <row r="357" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I357" s="11"/>
+      <c r="I357" s="9"/>
     </row>
     <row r="358" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I358" s="11"/>
+      <c r="I358" s="9"/>
     </row>
     <row r="359" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I359" s="11"/>
+      <c r="I359" s="9"/>
     </row>
     <row r="360" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I360" s="11"/>
+      <c r="I360" s="9"/>
     </row>
     <row r="361" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I361" s="11"/>
+      <c r="I361" s="9"/>
     </row>
     <row r="362" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I362" s="11"/>
+      <c r="I362" s="9"/>
     </row>
     <row r="363" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I363" s="11"/>
+      <c r="I363" s="9"/>
     </row>
     <row r="364" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I364" s="11"/>
+      <c r="I364" s="9"/>
     </row>
     <row r="365" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I365" s="11"/>
+      <c r="I365" s="9"/>
     </row>
     <row r="366" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I366" s="11"/>
+      <c r="I366" s="9"/>
     </row>
     <row r="367" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I367" s="11"/>
+      <c r="I367" s="9"/>
     </row>
     <row r="368" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I368" s="11"/>
+      <c r="I368" s="9"/>
     </row>
     <row r="369" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I369" s="11"/>
+      <c r="I369" s="9"/>
     </row>
     <row r="370" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I370" s="11"/>
+      <c r="I370" s="9"/>
     </row>
     <row r="371" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I371" s="11"/>
+      <c r="I371" s="9"/>
     </row>
     <row r="372" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I372" s="11"/>
+      <c r="I372" s="9"/>
     </row>
     <row r="373" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I373" s="11"/>
+      <c r="I373" s="9"/>
     </row>
     <row r="374" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I374" s="11"/>
+      <c r="I374" s="9"/>
     </row>
     <row r="375" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I375" s="11"/>
+      <c r="I375" s="9"/>
     </row>
     <row r="376" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I376" s="11"/>
+      <c r="I376" s="9"/>
     </row>
     <row r="377" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I377" s="11"/>
+      <c r="I377" s="9"/>
     </row>
     <row r="378" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I378" s="11"/>
+      <c r="I378" s="9"/>
     </row>
     <row r="379" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I379" s="11"/>
+      <c r="I379" s="9"/>
     </row>
     <row r="380" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I380" s="11"/>
+      <c r="I380" s="9"/>
     </row>
     <row r="381" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I381" s="11"/>
+      <c r="I381" s="9"/>
     </row>
     <row r="382" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I382" s="11"/>
+      <c r="I382" s="9"/>
     </row>
     <row r="383" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I383" s="11"/>
+      <c r="I383" s="9"/>
     </row>
     <row r="384" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I384" s="11"/>
+      <c r="I384" s="9"/>
     </row>
     <row r="385" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I385" s="11"/>
+      <c r="I385" s="9"/>
     </row>
     <row r="386" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I386" s="11"/>
+      <c r="I386" s="9"/>
     </row>
     <row r="387" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I387" s="11"/>
+      <c r="I387" s="9"/>
     </row>
     <row r="388" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I388" s="11"/>
+      <c r="I388" s="9"/>
     </row>
     <row r="389" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I389" s="11"/>
+      <c r="I389" s="9"/>
     </row>
     <row r="390" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I390" s="11"/>
+      <c r="I390" s="9"/>
     </row>
     <row r="391" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I391" s="11"/>
+      <c r="I391" s="9"/>
     </row>
     <row r="392" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I392" s="11"/>
+      <c r="I392" s="9"/>
     </row>
     <row r="393" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I393" s="11"/>
+      <c r="I393" s="9"/>
     </row>
     <row r="394" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I394" s="11"/>
+      <c r="I394" s="9"/>
     </row>
     <row r="395" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I395" s="11"/>
+      <c r="I395" s="9"/>
     </row>
     <row r="396" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I396" s="11"/>
+      <c r="I396" s="9"/>
     </row>
     <row r="397" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I397" s="11"/>
+      <c r="I397" s="9"/>
     </row>
     <row r="398" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I398" s="11"/>
+      <c r="I398" s="9"/>
     </row>
     <row r="399" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I399" s="11"/>
+      <c r="I399" s="9"/>
     </row>
     <row r="400" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I400" s="11"/>
+      <c r="I400" s="9"/>
     </row>
     <row r="401" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I401" s="11"/>
+      <c r="I401" s="9"/>
     </row>
     <row r="402" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I402" s="11"/>
+      <c r="I402" s="9"/>
     </row>
     <row r="403" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I403" s="11"/>
+      <c r="I403" s="9"/>
     </row>
     <row r="404" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I404" s="11"/>
+      <c r="I404" s="9"/>
     </row>
     <row r="405" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I405" s="11"/>
+      <c r="I405" s="9"/>
     </row>
     <row r="406" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I406" s="11"/>
+      <c r="I406" s="9"/>
     </row>
     <row r="407" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I407" s="11"/>
+      <c r="I407" s="9"/>
     </row>
     <row r="408" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I408" s="11"/>
+      <c r="I408" s="9"/>
     </row>
     <row r="409" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I409" s="11"/>
+      <c r="I409" s="9"/>
     </row>
     <row r="410" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I410" s="11"/>
+      <c r="I410" s="9"/>
     </row>
     <row r="411" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I411" s="11"/>
+      <c r="I411" s="9"/>
     </row>
     <row r="412" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I412" s="11"/>
+      <c r="I412" s="9"/>
     </row>
     <row r="413" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I413" s="11"/>
+      <c r="I413" s="9"/>
     </row>
     <row r="414" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I414" s="11"/>
+      <c r="I414" s="9"/>
     </row>
     <row r="415" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I415" s="11"/>
+      <c r="I415" s="9"/>
     </row>
     <row r="416" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I416" s="11"/>
+      <c r="I416" s="9"/>
     </row>
     <row r="417" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I417" s="11"/>
+      <c r="I417" s="9"/>
     </row>
     <row r="418" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I418" s="11"/>
+      <c r="I418" s="9"/>
     </row>
     <row r="419" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I419" s="11"/>
+      <c r="I419" s="9"/>
     </row>
     <row r="420" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I420" s="11"/>
+      <c r="I420" s="9"/>
     </row>
     <row r="421" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I421" s="11"/>
+      <c r="I421" s="9"/>
     </row>
     <row r="422" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I422" s="11"/>
+      <c r="I422" s="9"/>
     </row>
     <row r="423" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I423" s="11"/>
+      <c r="I423" s="9"/>
     </row>
     <row r="424" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I424" s="11"/>
+      <c r="I424" s="9"/>
     </row>
     <row r="425" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I425" s="11"/>
+      <c r="I425" s="9"/>
     </row>
     <row r="426" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I426" s="11"/>
+      <c r="I426" s="9"/>
     </row>
     <row r="427" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I427" s="11"/>
+      <c r="I427" s="9"/>
     </row>
     <row r="428" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I428" s="11"/>
+      <c r="I428" s="9"/>
     </row>
     <row r="429" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I429" s="11"/>
+      <c r="I429" s="9"/>
     </row>
     <row r="430" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I430" s="11"/>
+      <c r="I430" s="9"/>
     </row>
     <row r="431" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I431" s="11"/>
+      <c r="I431" s="9"/>
     </row>
     <row r="432" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I432" s="11"/>
+      <c r="I432" s="9"/>
     </row>
     <row r="433" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I433" s="11"/>
+      <c r="I433" s="9"/>
     </row>
     <row r="434" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I434" s="11"/>
+      <c r="I434" s="9"/>
     </row>
     <row r="435" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I435" s="11"/>
+      <c r="I435" s="9"/>
     </row>
     <row r="436" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I436" s="11"/>
+      <c r="I436" s="9"/>
     </row>
     <row r="437" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I437" s="11"/>
+      <c r="I437" s="9"/>
     </row>
     <row r="438" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I438" s="11"/>
+      <c r="I438" s="9"/>
     </row>
     <row r="439" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I439" s="11"/>
+      <c r="I439" s="9"/>
     </row>
     <row r="440" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I440" s="11"/>
+      <c r="I440" s="9"/>
     </row>
     <row r="441" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I441" s="11"/>
+      <c r="I441" s="9"/>
     </row>
     <row r="442" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I442" s="11"/>
+      <c r="I442" s="9"/>
     </row>
     <row r="443" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I443" s="11"/>
+      <c r="I443" s="9"/>
     </row>
     <row r="444" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I444" s="11"/>
+      <c r="I444" s="9"/>
     </row>
     <row r="445" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I445" s="11"/>
+      <c r="I445" s="9"/>
     </row>
     <row r="446" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I446" s="11"/>
+      <c r="I446" s="9"/>
     </row>
     <row r="447" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I447" s="11"/>
+      <c r="I447" s="9"/>
     </row>
     <row r="448" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I448" s="11"/>
+      <c r="I448" s="9"/>
     </row>
     <row r="449" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I449" s="11"/>
+      <c r="I449" s="9"/>
     </row>
     <row r="450" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I450" s="11"/>
+      <c r="I450" s="9"/>
     </row>
     <row r="451" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I451" s="11"/>
+      <c r="I451" s="9"/>
     </row>
     <row r="452" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I452" s="11"/>
+      <c r="I452" s="9"/>
     </row>
     <row r="453" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I453" s="11"/>
+      <c r="I453" s="9"/>
     </row>
     <row r="454" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I454" s="11"/>
+      <c r="I454" s="9"/>
     </row>
     <row r="455" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I455" s="11"/>
+      <c r="I455" s="9"/>
     </row>
     <row r="456" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I456" s="11"/>
+      <c r="I456" s="9"/>
     </row>
     <row r="457" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I457" s="11"/>
+      <c r="I457" s="9"/>
     </row>
     <row r="458" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I458" s="11"/>
+      <c r="I458" s="9"/>
     </row>
     <row r="459" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I459" s="11"/>
+      <c r="I459" s="9"/>
     </row>
     <row r="460" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I460" s="11"/>
+      <c r="I460" s="9"/>
     </row>
     <row r="461" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I461" s="11"/>
+      <c r="I461" s="9"/>
     </row>
     <row r="462" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I462" s="11"/>
+      <c r="I462" s="9"/>
     </row>
     <row r="463" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I463" s="11"/>
+      <c r="I463" s="9"/>
     </row>
     <row r="464" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I464" s="11"/>
+      <c r="I464" s="9"/>
     </row>
     <row r="465" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I465" s="11"/>
+      <c r="I465" s="9"/>
     </row>
     <row r="466" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I466" s="11"/>
+      <c r="I466" s="9"/>
     </row>
     <row r="467" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I467" s="11"/>
+      <c r="I467" s="9"/>
     </row>
     <row r="468" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I468" s="11"/>
+      <c r="I468" s="9"/>
     </row>
     <row r="469" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I469" s="11"/>
+      <c r="I469" s="9"/>
     </row>
     <row r="470" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I470" s="11"/>
+      <c r="I470" s="9"/>
     </row>
     <row r="471" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I471" s="11"/>
+      <c r="I471" s="9"/>
     </row>
     <row r="472" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I472" s="11"/>
+      <c r="I472" s="9"/>
     </row>
     <row r="473" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I473" s="11"/>
+      <c r="I473" s="9"/>
     </row>
     <row r="474" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I474" s="11"/>
+      <c r="I474" s="9"/>
     </row>
     <row r="475" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I475" s="11"/>
+      <c r="I475" s="9"/>
     </row>
     <row r="476" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I476" s="11"/>
+      <c r="I476" s="9"/>
     </row>
     <row r="477" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I477" s="11"/>
+      <c r="I477" s="9"/>
     </row>
     <row r="478" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I478" s="11"/>
+      <c r="I478" s="9"/>
     </row>
     <row r="479" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I479" s="11"/>
+      <c r="I479" s="9"/>
     </row>
     <row r="480" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I480" s="11"/>
+      <c r="I480" s="9"/>
     </row>
     <row r="481" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I481" s="11"/>
+      <c r="I481" s="9"/>
     </row>
     <row r="482" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I482" s="11"/>
+      <c r="I482" s="9"/>
     </row>
     <row r="483" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I483" s="11"/>
+      <c r="I483" s="9"/>
     </row>
     <row r="484" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I484" s="11"/>
+      <c r="I484" s="9"/>
     </row>
     <row r="485" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I485" s="11"/>
+      <c r="I485" s="9"/>
     </row>
     <row r="486" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I486" s="11"/>
+      <c r="I486" s="9"/>
     </row>
     <row r="487" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I487" s="11"/>
+      <c r="I487" s="9"/>
     </row>
     <row r="488" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I488" s="11"/>
+      <c r="I488" s="9"/>
     </row>
     <row r="489" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I489" s="11"/>
+      <c r="I489" s="9"/>
     </row>
     <row r="490" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I490" s="11"/>
+      <c r="I490" s="9"/>
     </row>
     <row r="491" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I491" s="11"/>
+      <c r="I491" s="9"/>
     </row>
     <row r="492" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I492" s="11"/>
+      <c r="I492" s="9"/>
     </row>
     <row r="493" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I493" s="11"/>
+      <c r="I493" s="9"/>
     </row>
     <row r="494" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I494" s="11"/>
+      <c r="I494" s="9"/>
     </row>
     <row r="495" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I495" s="11"/>
+      <c r="I495" s="9"/>
     </row>
     <row r="496" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I496" s="11"/>
+      <c r="I496" s="9"/>
     </row>
     <row r="497" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I497" s="11"/>
+      <c r="I497" s="9"/>
     </row>
     <row r="498" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I498" s="11"/>
+      <c r="I498" s="9"/>
     </row>
     <row r="499" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I499" s="11"/>
+      <c r="I499" s="9"/>
     </row>
     <row r="500" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I500" s="11"/>
+      <c r="I500" s="9"/>
     </row>
     <row r="501" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I501" s="11"/>
+      <c r="I501" s="9"/>
     </row>
     <row r="502" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I502" s="11"/>
+      <c r="I502" s="9"/>
     </row>
     <row r="503" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I503" s="11"/>
+      <c r="I503" s="9"/>
     </row>
     <row r="504" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I504" s="11"/>
+      <c r="I504" s="9"/>
     </row>
     <row r="505" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I505" s="11"/>
+      <c r="I505" s="9"/>
     </row>
     <row r="506" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I506" s="11"/>
+      <c r="I506" s="9"/>
     </row>
     <row r="507" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I507" s="11"/>
+      <c r="I507" s="9"/>
     </row>
     <row r="508" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I508" s="11"/>
+      <c r="I508" s="9"/>
     </row>
     <row r="509" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I509" s="11"/>
+      <c r="I509" s="9"/>
     </row>
     <row r="510" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I510" s="11"/>
+      <c r="I510" s="9"/>
     </row>
     <row r="511" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I511" s="11"/>
+      <c r="I511" s="9"/>
     </row>
     <row r="512" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I512" s="11"/>
+      <c r="I512" s="9"/>
     </row>
     <row r="513" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I513" s="11"/>
+      <c r="I513" s="9"/>
     </row>
     <row r="514" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I514" s="11"/>
+      <c r="I514" s="9"/>
     </row>
     <row r="515" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I515" s="11"/>
+      <c r="I515" s="9"/>
     </row>
     <row r="516" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I516" s="11"/>
+      <c r="I516" s="9"/>
     </row>
     <row r="517" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I517" s="11"/>
+      <c r="I517" s="9"/>
     </row>
     <row r="518" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I518" s="11"/>
+      <c r="I518" s="9"/>
     </row>
     <row r="519" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I519" s="11"/>
+      <c r="I519" s="9"/>
     </row>
     <row r="520" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I520" s="11"/>
+      <c r="I520" s="9"/>
     </row>
     <row r="521" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I521" s="11"/>
+      <c r="I521" s="9"/>
     </row>
     <row r="522" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I522" s="11"/>
+      <c r="I522" s="9"/>
     </row>
     <row r="523" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I523" s="11"/>
+      <c r="I523" s="9"/>
     </row>
     <row r="524" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I524" s="11"/>
+      <c r="I524" s="9"/>
     </row>
     <row r="525" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I525" s="11"/>
+      <c r="I525" s="9"/>
     </row>
     <row r="526" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I526" s="11"/>
+      <c r="I526" s="9"/>
     </row>
     <row r="527" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I527" s="11"/>
+      <c r="I527" s="9"/>
     </row>
     <row r="528" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I528" s="11"/>
+      <c r="I528" s="9"/>
     </row>
     <row r="529" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I529" s="11"/>
+      <c r="I529" s="9"/>
     </row>
     <row r="530" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I530" s="11"/>
+      <c r="I530" s="9"/>
     </row>
     <row r="531" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I531" s="11"/>
+      <c r="I531" s="9"/>
     </row>
     <row r="532" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I532" s="11"/>
+      <c r="I532" s="9"/>
     </row>
     <row r="533" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I533" s="11"/>
+      <c r="I533" s="9"/>
     </row>
     <row r="534" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I534" s="11"/>
+      <c r="I534" s="9"/>
     </row>
     <row r="535" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I535" s="11"/>
+      <c r="I535" s="9"/>
     </row>
     <row r="536" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I536" s="11"/>
+      <c r="I536" s="9"/>
     </row>
     <row r="537" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I537" s="11"/>
+      <c r="I537" s="9"/>
     </row>
     <row r="538" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I538" s="11"/>
+      <c r="I538" s="9"/>
     </row>
     <row r="539" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I539" s="11"/>
+      <c r="I539" s="9"/>
     </row>
     <row r="540" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I540" s="11"/>
+      <c r="I540" s="9"/>
     </row>
     <row r="541" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I541" s="11"/>
+      <c r="I541" s="9"/>
     </row>
     <row r="542" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I542" s="11"/>
+      <c r="I542" s="9"/>
     </row>
     <row r="543" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I543" s="11"/>
+      <c r="I543" s="9"/>
     </row>
     <row r="544" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I544" s="11"/>
+      <c r="I544" s="9"/>
     </row>
     <row r="545" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I545" s="11"/>
+      <c r="I545" s="9"/>
     </row>
     <row r="546" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I546" s="11"/>
+      <c r="I546" s="9"/>
     </row>
     <row r="547" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I547" s="11"/>
+      <c r="I547" s="9"/>
     </row>
     <row r="548" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I548" s="11"/>
+      <c r="I548" s="9"/>
     </row>
     <row r="549" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I549" s="11"/>
+      <c r="I549" s="9"/>
     </row>
     <row r="550" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I550" s="11"/>
+      <c r="I550" s="9"/>
     </row>
     <row r="551" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I551" s="11"/>
+      <c r="I551" s="9"/>
     </row>
     <row r="552" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I552" s="11"/>
+      <c r="I552" s="9"/>
     </row>
     <row r="553" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I553" s="11"/>
+      <c r="I553" s="9"/>
     </row>
     <row r="554" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I554" s="11"/>
+      <c r="I554" s="9"/>
     </row>
     <row r="555" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I555" s="11"/>
+      <c r="I555" s="9"/>
     </row>
     <row r="556" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I556" s="11"/>
+      <c r="I556" s="9"/>
     </row>
     <row r="557" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I557" s="11"/>
+      <c r="I557" s="9"/>
     </row>
     <row r="558" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I558" s="11"/>
+      <c r="I558" s="9"/>
     </row>
     <row r="559" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I559" s="11"/>
+      <c r="I559" s="9"/>
     </row>
     <row r="560" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I560" s="11"/>
+      <c r="I560" s="9"/>
     </row>
     <row r="561" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I561" s="11"/>
+      <c r="I561" s="9"/>
     </row>
     <row r="562" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I562" s="11"/>
+      <c r="I562" s="9"/>
     </row>
     <row r="563" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I563" s="11"/>
+      <c r="I563" s="9"/>
     </row>
     <row r="564" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I564" s="11"/>
+      <c r="I564" s="9"/>
     </row>
     <row r="565" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I565" s="11"/>
+      <c r="I565" s="9"/>
     </row>
     <row r="566" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I566" s="11"/>
+      <c r="I566" s="9"/>
     </row>
     <row r="567" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I567" s="11"/>
+      <c r="I567" s="9"/>
     </row>
     <row r="568" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I568" s="11"/>
+      <c r="I568" s="9"/>
     </row>
     <row r="569" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I569" s="11"/>
+      <c r="I569" s="9"/>
     </row>
     <row r="570" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I570" s="11"/>
+      <c r="I570" s="9"/>
     </row>
     <row r="571" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I571" s="11"/>
+      <c r="I571" s="9"/>
     </row>
     <row r="572" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I572" s="11"/>
+      <c r="I572" s="9"/>
     </row>
     <row r="573" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I573" s="11"/>
+      <c r="I573" s="9"/>
     </row>
     <row r="574" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I574" s="11"/>
+      <c r="I574" s="9"/>
     </row>
     <row r="575" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I575" s="11"/>
+      <c r="I575" s="9"/>
     </row>
     <row r="576" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I576" s="11"/>
+      <c r="I576" s="9"/>
     </row>
     <row r="577" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I577" s="11"/>
+      <c r="I577" s="9"/>
     </row>
     <row r="578" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I578" s="11"/>
+      <c r="I578" s="9"/>
     </row>
     <row r="579" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I579" s="11"/>
+      <c r="I579" s="9"/>
     </row>
     <row r="580" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I580" s="11"/>
+      <c r="I580" s="9"/>
     </row>
     <row r="581" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I581" s="11"/>
+      <c r="I581" s="9"/>
     </row>
     <row r="582" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I582" s="11"/>
+      <c r="I582" s="9"/>
     </row>
     <row r="583" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I583" s="11"/>
+      <c r="I583" s="9"/>
     </row>
     <row r="584" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I584" s="11"/>
+      <c r="I584" s="9"/>
     </row>
     <row r="585" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I585" s="11"/>
+      <c r="I585" s="9"/>
     </row>
     <row r="586" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I586" s="11"/>
+      <c r="I586" s="9"/>
     </row>
     <row r="587" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I587" s="11"/>
+      <c r="I587" s="9"/>
     </row>
     <row r="588" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I588" s="11"/>
+      <c r="I588" s="9"/>
     </row>
     <row r="589" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I589" s="11"/>
+      <c r="I589" s="9"/>
     </row>
     <row r="590" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I590" s="11"/>
+      <c r="I590" s="9"/>
     </row>
     <row r="591" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I591" s="11"/>
+      <c r="I591" s="9"/>
     </row>
     <row r="592" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I592" s="11"/>
+      <c r="I592" s="9"/>
     </row>
     <row r="593" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I593" s="11"/>
+      <c r="I593" s="9"/>
     </row>
     <row r="594" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I594" s="11"/>
+      <c r="I594" s="9"/>
     </row>
     <row r="595" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I595" s="11"/>
+      <c r="I595" s="9"/>
     </row>
     <row r="596" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I596" s="11"/>
+      <c r="I596" s="9"/>
     </row>
     <row r="597" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I597" s="11"/>
+      <c r="I597" s="9"/>
     </row>
     <row r="598" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I598" s="11"/>
+      <c r="I598" s="9"/>
     </row>
     <row r="599" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I599" s="11"/>
+      <c r="I599" s="9"/>
     </row>
     <row r="600" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I600" s="11"/>
+      <c r="I600" s="9"/>
     </row>
     <row r="601" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I601" s="11"/>
+      <c r="I601" s="9"/>
     </row>
     <row r="602" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I602" s="11"/>
+      <c r="I602" s="9"/>
     </row>
     <row r="603" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I603" s="11"/>
+      <c r="I603" s="9"/>
     </row>
     <row r="604" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I604" s="11"/>
+      <c r="I604" s="9"/>
     </row>
     <row r="605" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I605" s="11"/>
+      <c r="I605" s="9"/>
     </row>
     <row r="606" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I606" s="11"/>
+      <c r="I606" s="9"/>
     </row>
     <row r="607" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I607" s="11"/>
+      <c r="I607" s="9"/>
     </row>
     <row r="608" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I608" s="11"/>
+      <c r="I608" s="9"/>
     </row>
     <row r="609" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I609" s="11"/>
+      <c r="I609" s="9"/>
     </row>
     <row r="610" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I610" s="11"/>
+      <c r="I610" s="9"/>
     </row>
     <row r="611" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I611" s="11"/>
+      <c r="I611" s="9"/>
     </row>
     <row r="612" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I612" s="11"/>
+      <c r="I612" s="9"/>
     </row>
     <row r="613" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I613" s="11"/>
+      <c r="I613" s="9"/>
     </row>
     <row r="614" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I614" s="11"/>
+      <c r="I614" s="9"/>
     </row>
     <row r="615" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I615" s="11"/>
+      <c r="I615" s="9"/>
     </row>
     <row r="616" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I616" s="11"/>
+      <c r="I616" s="9"/>
     </row>
     <row r="617" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I617" s="11"/>
+      <c r="I617" s="9"/>
     </row>
     <row r="618" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I618" s="11"/>
+      <c r="I618" s="9"/>
     </row>
     <row r="619" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I619" s="11"/>
+      <c r="I619" s="9"/>
     </row>
     <row r="620" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I620" s="11"/>
+      <c r="I620" s="9"/>
     </row>
     <row r="621" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I621" s="11"/>
+      <c r="I621" s="9"/>
     </row>
     <row r="622" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I622" s="11"/>
+      <c r="I622" s="9"/>
     </row>
     <row r="623" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I623" s="11"/>
+      <c r="I623" s="9"/>
     </row>
     <row r="624" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I624" s="11"/>
+      <c r="I624" s="9"/>
     </row>
     <row r="625" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I625" s="11"/>
+      <c r="I625" s="9"/>
     </row>
     <row r="626" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I626" s="11"/>
+      <c r="I626" s="9"/>
     </row>
     <row r="627" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I627" s="11"/>
+      <c r="I627" s="9"/>
     </row>
     <row r="628" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I628" s="11"/>
+      <c r="I628" s="9"/>
     </row>
     <row r="629" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I629" s="11"/>
+      <c r="I629" s="9"/>
     </row>
     <row r="630" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I630" s="11"/>
+      <c r="I630" s="9"/>
     </row>
     <row r="631" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I631" s="11"/>
+      <c r="I631" s="9"/>
     </row>
     <row r="632" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I632" s="11"/>
+      <c r="I632" s="9"/>
     </row>
     <row r="633" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I633" s="11"/>
+      <c r="I633" s="9"/>
     </row>
     <row r="634" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I634" s="11"/>
+      <c r="I634" s="9"/>
     </row>
     <row r="635" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I635" s="11"/>
+      <c r="I635" s="9"/>
     </row>
     <row r="636" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I636" s="11"/>
+      <c r="I636" s="9"/>
     </row>
     <row r="637" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I637" s="11"/>
+      <c r="I637" s="9"/>
     </row>
     <row r="638" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I638" s="11"/>
+      <c r="I638" s="9"/>
     </row>
     <row r="639" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I639" s="11"/>
+      <c r="I639" s="9"/>
     </row>
     <row r="640" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I640" s="11"/>
+      <c r="I640" s="9"/>
     </row>
     <row r="641" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I641" s="11"/>
+      <c r="I641" s="9"/>
     </row>
     <row r="642" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I642" s="11"/>
+      <c r="I642" s="9"/>
     </row>
     <row r="643" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I643" s="11"/>
+      <c r="I643" s="9"/>
     </row>
     <row r="644" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I644" s="11"/>
+      <c r="I644" s="9"/>
     </row>
     <row r="645" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I645" s="11"/>
+      <c r="I645" s="9"/>
     </row>
     <row r="646" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I646" s="11"/>
+      <c r="I646" s="9"/>
     </row>
     <row r="647" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I647" s="11"/>
+      <c r="I647" s="9"/>
     </row>
     <row r="648" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I648" s="11"/>
+      <c r="I648" s="9"/>
     </row>
     <row r="649" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I649" s="11"/>
+      <c r="I649" s="9"/>
     </row>
     <row r="650" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I650" s="11"/>
+      <c r="I650" s="9"/>
     </row>
     <row r="651" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I651" s="11"/>
+      <c r="I651" s="9"/>
     </row>
     <row r="652" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I652" s="11"/>
+      <c r="I652" s="9"/>
     </row>
     <row r="653" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I653" s="11"/>
+      <c r="I653" s="9"/>
     </row>
     <row r="654" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I654" s="11"/>
+      <c r="I654" s="9"/>
     </row>
     <row r="655" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I655" s="11"/>
+      <c r="I655" s="9"/>
     </row>
     <row r="656" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I656" s="11"/>
+      <c r="I656" s="9"/>
     </row>
     <row r="657" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I657" s="11"/>
+      <c r="I657" s="9"/>
     </row>
     <row r="658" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I658" s="11"/>
+      <c r="I658" s="9"/>
     </row>
     <row r="659" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I659" s="11"/>
+      <c r="I659" s="9"/>
     </row>
     <row r="660" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I660" s="11"/>
+      <c r="I660" s="9"/>
     </row>
     <row r="661" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I661" s="11"/>
+      <c r="I661" s="9"/>
     </row>
     <row r="662" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I662" s="11"/>
+      <c r="I662" s="9"/>
     </row>
     <row r="663" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I663" s="11"/>
+      <c r="I663" s="9"/>
     </row>
     <row r="664" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I664" s="11"/>
+      <c r="I664" s="9"/>
     </row>
     <row r="665" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I665" s="11"/>
+      <c r="I665" s="9"/>
     </row>
     <row r="666" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I666" s="11"/>
+      <c r="I666" s="9"/>
     </row>
     <row r="667" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I667" s="11"/>
+      <c r="I667" s="9"/>
     </row>
     <row r="668" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I668" s="11"/>
+      <c r="I668" s="9"/>
     </row>
     <row r="669" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I669" s="11"/>
+      <c r="I669" s="9"/>
     </row>
     <row r="670" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I670" s="11"/>
+      <c r="I670" s="9"/>
     </row>
     <row r="671" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I671" s="11"/>
+      <c r="I671" s="9"/>
     </row>
     <row r="672" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I672" s="11"/>
+      <c r="I672" s="9"/>
     </row>
     <row r="673" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I673" s="11"/>
+      <c r="I673" s="9"/>
     </row>
     <row r="674" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I674" s="11"/>
+      <c r="I674" s="9"/>
     </row>
     <row r="675" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I675" s="11"/>
+      <c r="I675" s="9"/>
     </row>
     <row r="676" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I676" s="11"/>
+      <c r="I676" s="9"/>
     </row>
     <row r="677" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I677" s="11"/>
+      <c r="I677" s="9"/>
     </row>
     <row r="678" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I678" s="11"/>
+      <c r="I678" s="9"/>
     </row>
     <row r="679" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I679" s="11"/>
+      <c r="I679" s="9"/>
     </row>
     <row r="680" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I680" s="11"/>
+      <c r="I680" s="9"/>
     </row>
     <row r="681" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I681" s="11"/>
+      <c r="I681" s="9"/>
     </row>
     <row r="682" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I682" s="11"/>
+      <c r="I682" s="9"/>
     </row>
     <row r="683" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I683" s="11"/>
+      <c r="I683" s="9"/>
     </row>
     <row r="684" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I684" s="11"/>
+      <c r="I684" s="9"/>
     </row>
     <row r="685" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I685" s="11"/>
+      <c r="I685" s="9"/>
     </row>
     <row r="686" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I686" s="11"/>
+      <c r="I686" s="9"/>
     </row>
     <row r="687" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I687" s="11"/>
+      <c r="I687" s="9"/>
     </row>
     <row r="688" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I688" s="11"/>
+      <c r="I688" s="9"/>
     </row>
     <row r="689" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I689" s="11"/>
+      <c r="I689" s="9"/>
     </row>
     <row r="690" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I690" s="11"/>
+      <c r="I690" s="9"/>
     </row>
     <row r="691" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I691" s="11"/>
+      <c r="I691" s="9"/>
     </row>
     <row r="692" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I692" s="11"/>
+      <c r="I692" s="9"/>
     </row>
     <row r="693" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I693" s="11"/>
+      <c r="I693" s="9"/>
     </row>
     <row r="694" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I694" s="11"/>
+      <c r="I694" s="9"/>
     </row>
     <row r="695" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I695" s="11"/>
+      <c r="I695" s="9"/>
     </row>
     <row r="696" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I696" s="11"/>
+      <c r="I696" s="9"/>
     </row>
     <row r="697" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I697" s="11"/>
+      <c r="I697" s="9"/>
     </row>
     <row r="698" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I698" s="11"/>
+      <c r="I698" s="9"/>
     </row>
     <row r="699" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I699" s="11"/>
+      <c r="I699" s="9"/>
     </row>
     <row r="700" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I700" s="11"/>
+      <c r="I700" s="9"/>
     </row>
     <row r="701" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I701" s="11"/>
+      <c r="I701" s="9"/>
     </row>
     <row r="702" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I702" s="11"/>
+      <c r="I702" s="9"/>
     </row>
     <row r="703" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I703" s="11"/>
+      <c r="I703" s="9"/>
     </row>
     <row r="704" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I704" s="11"/>
+      <c r="I704" s="9"/>
     </row>
     <row r="705" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I705" s="11"/>
+      <c r="I705" s="9"/>
     </row>
     <row r="706" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I706" s="11"/>
+      <c r="I706" s="9"/>
     </row>
     <row r="707" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I707" s="11"/>
+      <c r="I707" s="9"/>
     </row>
     <row r="708" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I708" s="11"/>
+      <c r="I708" s="9"/>
     </row>
     <row r="709" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I709" s="11"/>
+      <c r="I709" s="9"/>
     </row>
     <row r="710" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I710" s="11"/>
+      <c r="I710" s="9"/>
     </row>
     <row r="711" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I711" s="11"/>
+      <c r="I711" s="9"/>
     </row>
     <row r="712" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I712" s="11"/>
+      <c r="I712" s="9"/>
     </row>
     <row r="713" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I713" s="11"/>
+      <c r="I713" s="9"/>
     </row>
     <row r="714" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I714" s="11"/>
+      <c r="I714" s="9"/>
     </row>
     <row r="715" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I715" s="11"/>
+      <c r="I715" s="9"/>
     </row>
     <row r="716" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I716" s="11"/>
+      <c r="I716" s="9"/>
     </row>
     <row r="717" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I717" s="11"/>
+      <c r="I717" s="9"/>
     </row>
     <row r="718" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I718" s="11"/>
+      <c r="I718" s="9"/>
     </row>
     <row r="719" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I719" s="11"/>
+      <c r="I719" s="9"/>
     </row>
     <row r="720" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I720" s="11"/>
+      <c r="I720" s="9"/>
     </row>
     <row r="721" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I721" s="11"/>
+      <c r="I721" s="9"/>
     </row>
     <row r="722" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I722" s="11"/>
+      <c r="I722" s="9"/>
     </row>
     <row r="723" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I723" s="11"/>
+      <c r="I723" s="9"/>
     </row>
     <row r="724" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I724" s="11"/>
+      <c r="I724" s="9"/>
     </row>
     <row r="725" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I725" s="11"/>
+      <c r="I725" s="9"/>
     </row>
     <row r="726" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I726" s="11"/>
+      <c r="I726" s="9"/>
     </row>
     <row r="727" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I727" s="11"/>
+      <c r="I727" s="9"/>
     </row>
     <row r="728" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I728" s="11"/>
+      <c r="I728" s="9"/>
     </row>
     <row r="729" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I729" s="11"/>
+      <c r="I729" s="9"/>
     </row>
     <row r="730" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I730" s="11"/>
+      <c r="I730" s="9"/>
     </row>
     <row r="731" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I731" s="11"/>
+      <c r="I731" s="9"/>
     </row>
     <row r="732" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I732" s="11"/>
+      <c r="I732" s="9"/>
     </row>
     <row r="733" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I733" s="11"/>
+      <c r="I733" s="9"/>
     </row>
     <row r="734" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I734" s="11"/>
+      <c r="I734" s="9"/>
     </row>
     <row r="735" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I735" s="11"/>
+      <c r="I735" s="9"/>
     </row>
     <row r="736" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I736" s="11"/>
+      <c r="I736" s="9"/>
     </row>
     <row r="737" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I737" s="11"/>
+      <c r="I737" s="9"/>
     </row>
     <row r="738" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I738" s="11"/>
+      <c r="I738" s="9"/>
     </row>
     <row r="739" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I739" s="11"/>
+      <c r="I739" s="9"/>
     </row>
     <row r="740" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I740" s="11"/>
+      <c r="I740" s="9"/>
     </row>
     <row r="741" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I741" s="11"/>
+      <c r="I741" s="9"/>
     </row>
     <row r="742" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I742" s="11"/>
+      <c r="I742" s="9"/>
     </row>
     <row r="743" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I743" s="11"/>
+      <c r="I743" s="9"/>
     </row>
     <row r="744" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I744" s="11"/>
+      <c r="I744" s="9"/>
     </row>
     <row r="745" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I745" s="11"/>
+      <c r="I745" s="9"/>
     </row>
     <row r="746" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I746" s="11"/>
+      <c r="I746" s="9"/>
     </row>
     <row r="747" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I747" s="11"/>
+      <c r="I747" s="9"/>
     </row>
     <row r="748" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I748" s="11"/>
+      <c r="I748" s="9"/>
     </row>
     <row r="749" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I749" s="11"/>
+      <c r="I749" s="9"/>
     </row>
     <row r="750" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I750" s="11"/>
+      <c r="I750" s="9"/>
     </row>
     <row r="751" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I751" s="11"/>
+      <c r="I751" s="9"/>
     </row>
     <row r="752" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I752" s="11"/>
+      <c r="I752" s="9"/>
     </row>
     <row r="753" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I753" s="11"/>
+      <c r="I753" s="9"/>
     </row>
     <row r="754" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I754" s="11"/>
+      <c r="I754" s="9"/>
     </row>
     <row r="755" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I755" s="11"/>
+      <c r="I755" s="9"/>
     </row>
     <row r="756" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I756" s="11"/>
+      <c r="I756" s="9"/>
     </row>
     <row r="757" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I757" s="11"/>
+      <c r="I757" s="9"/>
     </row>
     <row r="758" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I758" s="11"/>
+      <c r="I758" s="9"/>
     </row>
     <row r="759" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I759" s="11"/>
+      <c r="I759" s="9"/>
     </row>
     <row r="760" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I760" s="11"/>
+      <c r="I760" s="9"/>
     </row>
     <row r="761" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I761" s="11"/>
+      <c r="I761" s="9"/>
     </row>
     <row r="762" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I762" s="11"/>
+      <c r="I762" s="9"/>
     </row>
     <row r="763" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I763" s="11"/>
+      <c r="I763" s="9"/>
     </row>
     <row r="764" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I764" s="11"/>
+      <c r="I764" s="9"/>
     </row>
     <row r="765" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I765" s="11"/>
+      <c r="I765" s="9"/>
     </row>
     <row r="766" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I766" s="11"/>
+      <c r="I766" s="9"/>
     </row>
     <row r="767" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I767" s="11"/>
+      <c r="I767" s="9"/>
     </row>
     <row r="768" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I768" s="11"/>
+      <c r="I768" s="9"/>
     </row>
     <row r="769" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I769" s="11"/>
+      <c r="I769" s="9"/>
     </row>
     <row r="770" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I770" s="11"/>
+      <c r="I770" s="9"/>
     </row>
     <row r="771" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I771" s="11"/>
+      <c r="I771" s="9"/>
     </row>
     <row r="772" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I772" s="11"/>
+      <c r="I772" s="9"/>
     </row>
     <row r="773" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I773" s="11"/>
+      <c r="I773" s="9"/>
     </row>
     <row r="774" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I774" s="11"/>
+      <c r="I774" s="9"/>
     </row>
     <row r="775" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I775" s="11"/>
+      <c r="I775" s="9"/>
     </row>
     <row r="776" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I776" s="11"/>
+      <c r="I776" s="9"/>
     </row>
     <row r="777" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I777" s="11"/>
+      <c r="I777" s="9"/>
     </row>
     <row r="778" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I778" s="11"/>
+      <c r="I778" s="9"/>
     </row>
     <row r="779" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I779" s="11"/>
+      <c r="I779" s="9"/>
     </row>
     <row r="780" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I780" s="11"/>
+      <c r="I780" s="9"/>
     </row>
     <row r="781" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I781" s="11"/>
+      <c r="I781" s="9"/>
     </row>
     <row r="782" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I782" s="11"/>
+      <c r="I782" s="9"/>
     </row>
     <row r="783" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I783" s="11"/>
+      <c r="I783" s="9"/>
     </row>
     <row r="784" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I784" s="11"/>
+      <c r="I784" s="9"/>
     </row>
     <row r="785" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I785" s="11"/>
+      <c r="I785" s="9"/>
     </row>
     <row r="786" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I786" s="11"/>
+      <c r="I786" s="9"/>
     </row>
     <row r="787" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I787" s="11"/>
+      <c r="I787" s="9"/>
     </row>
     <row r="788" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I788" s="11"/>
+      <c r="I788" s="9"/>
     </row>
     <row r="789" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I789" s="11"/>
+      <c r="I789" s="9"/>
     </row>
     <row r="790" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I790" s="11"/>
+      <c r="I790" s="9"/>
     </row>
     <row r="791" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I791" s="11"/>
+      <c r="I791" s="9"/>
     </row>
     <row r="792" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I792" s="11"/>
+      <c r="I792" s="9"/>
     </row>
     <row r="793" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I793" s="11"/>
+      <c r="I793" s="9"/>
     </row>
     <row r="794" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I794" s="11"/>
+      <c r="I794" s="9"/>
     </row>
     <row r="795" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I795" s="11"/>
+      <c r="I795" s="9"/>
     </row>
     <row r="796" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I796" s="11"/>
+      <c r="I796" s="9"/>
     </row>
     <row r="797" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I797" s="11"/>
+      <c r="I797" s="9"/>
     </row>
     <row r="798" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I798" s="11"/>
+      <c r="I798" s="9"/>
     </row>
     <row r="799" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I799" s="11"/>
+      <c r="I799" s="9"/>
     </row>
     <row r="800" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I800" s="11"/>
+      <c r="I800" s="9"/>
     </row>
     <row r="801" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I801" s="11"/>
+      <c r="I801" s="9"/>
     </row>
     <row r="802" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I802" s="11"/>
+      <c r="I802" s="9"/>
     </row>
     <row r="803" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I803" s="11"/>
+      <c r="I803" s="9"/>
     </row>
     <row r="804" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I804" s="11"/>
+      <c r="I804" s="9"/>
     </row>
     <row r="805" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I805" s="11"/>
+      <c r="I805" s="9"/>
     </row>
     <row r="806" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I806" s="11"/>
+      <c r="I806" s="9"/>
     </row>
     <row r="807" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I807" s="11"/>
+      <c r="I807" s="9"/>
     </row>
     <row r="808" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I808" s="11"/>
+      <c r="I808" s="9"/>
     </row>
     <row r="809" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I809" s="11"/>
+      <c r="I809" s="9"/>
     </row>
     <row r="810" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I810" s="11"/>
+      <c r="I810" s="9"/>
     </row>
     <row r="811" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I811" s="11"/>
+      <c r="I811" s="9"/>
     </row>
     <row r="812" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I812" s="11"/>
+      <c r="I812" s="9"/>
     </row>
     <row r="813" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I813" s="11"/>
+      <c r="I813" s="9"/>
     </row>
     <row r="814" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I814" s="11"/>
+      <c r="I814" s="9"/>
     </row>
     <row r="815" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I815" s="11"/>
+      <c r="I815" s="9"/>
     </row>
     <row r="816" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I816" s="11"/>
+      <c r="I816" s="9"/>
     </row>
     <row r="817" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I817" s="11"/>
+      <c r="I817" s="9"/>
     </row>
     <row r="818" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I818" s="11"/>
+      <c r="I818" s="9"/>
     </row>
     <row r="819" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I819" s="11"/>
+      <c r="I819" s="9"/>
     </row>
     <row r="820" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I820" s="11"/>
+      <c r="I820" s="9"/>
     </row>
     <row r="821" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I821" s="11"/>
+      <c r="I821" s="9"/>
     </row>
     <row r="822" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I822" s="11"/>
+      <c r="I822" s="9"/>
     </row>
     <row r="823" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I823" s="11"/>
+      <c r="I823" s="9"/>
     </row>
     <row r="824" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I824" s="11"/>
+      <c r="I824" s="9"/>
     </row>
     <row r="825" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I825" s="11"/>
+      <c r="I825" s="9"/>
     </row>
     <row r="826" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I826" s="11"/>
+      <c r="I826" s="9"/>
     </row>
     <row r="827" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I827" s="11"/>
+      <c r="I827" s="9"/>
     </row>
     <row r="828" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I828" s="11"/>
+      <c r="I828" s="9"/>
     </row>
     <row r="829" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I829" s="11"/>
+      <c r="I829" s="9"/>
     </row>
     <row r="830" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I830" s="11"/>
+      <c r="I830" s="9"/>
     </row>
     <row r="831" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I831" s="11"/>
+      <c r="I831" s="9"/>
     </row>
     <row r="832" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I832" s="11"/>
+      <c r="I832" s="9"/>
     </row>
     <row r="833" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I833" s="11"/>
+      <c r="I833" s="9"/>
     </row>
     <row r="834" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I834" s="11"/>
+      <c r="I834" s="9"/>
     </row>
     <row r="835" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I835" s="11"/>
+      <c r="I835" s="9"/>
     </row>
     <row r="836" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I836" s="11"/>
+      <c r="I836" s="9"/>
     </row>
     <row r="837" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I837" s="11"/>
+      <c r="I837" s="9"/>
     </row>
     <row r="838" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I838" s="11"/>
+      <c r="I838" s="9"/>
     </row>
     <row r="839" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I839" s="11"/>
+      <c r="I839" s="9"/>
     </row>
     <row r="840" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I840" s="11"/>
+      <c r="I840" s="9"/>
     </row>
     <row r="841" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I841" s="11"/>
+      <c r="I841" s="9"/>
     </row>
     <row r="842" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I842" s="11"/>
+      <c r="I842" s="9"/>
     </row>
     <row r="843" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I843" s="11"/>
+      <c r="I843" s="9"/>
     </row>
     <row r="844" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I844" s="11"/>
+      <c r="I844" s="9"/>
     </row>
     <row r="845" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I845" s="11"/>
+      <c r="I845" s="9"/>
     </row>
     <row r="846" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I846" s="11"/>
+      <c r="I846" s="9"/>
     </row>
     <row r="847" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I847" s="11"/>
+      <c r="I847" s="9"/>
     </row>
     <row r="848" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I848" s="11"/>
+      <c r="I848" s="9"/>
     </row>
     <row r="849" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I849" s="11"/>
+      <c r="I849" s="9"/>
     </row>
     <row r="850" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I850" s="11"/>
+      <c r="I850" s="9"/>
     </row>
     <row r="851" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I851" s="11"/>
+      <c r="I851" s="9"/>
     </row>
     <row r="852" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I852" s="11"/>
+      <c r="I852" s="9"/>
     </row>
     <row r="853" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I853" s="11"/>
+      <c r="I853" s="9"/>
     </row>
     <row r="854" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I854" s="11"/>
+      <c r="I854" s="9"/>
     </row>
     <row r="855" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I855" s="11"/>
+      <c r="I855" s="9"/>
     </row>
     <row r="856" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I856" s="11"/>
+      <c r="I856" s="9"/>
     </row>
     <row r="857" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I857" s="11"/>
+      <c r="I857" s="9"/>
     </row>
     <row r="858" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I858" s="11"/>
+      <c r="I858" s="9"/>
     </row>
     <row r="859" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I859" s="11"/>
+      <c r="I859" s="9"/>
     </row>
     <row r="860" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I860" s="11"/>
+      <c r="I860" s="9"/>
     </row>
     <row r="861" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I861" s="11"/>
+      <c r="I861" s="9"/>
     </row>
     <row r="862" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I862" s="11"/>
+      <c r="I862" s="9"/>
     </row>
     <row r="863" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I863" s="11"/>
+      <c r="I863" s="9"/>
     </row>
     <row r="864" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I864" s="11"/>
+      <c r="I864" s="9"/>
     </row>
     <row r="865" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I865" s="11"/>
+      <c r="I865" s="9"/>
     </row>
     <row r="866" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I866" s="11"/>
+      <c r="I866" s="9"/>
     </row>
     <row r="867" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I867" s="11"/>
+      <c r="I867" s="9"/>
     </row>
     <row r="868" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I868" s="11"/>
+      <c r="I868" s="9"/>
     </row>
     <row r="869" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I869" s="11"/>
+      <c r="I869" s="9"/>
     </row>
     <row r="870" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I870" s="11"/>
+      <c r="I870" s="9"/>
     </row>
     <row r="871" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I871" s="11"/>
+      <c r="I871" s="9"/>
     </row>
     <row r="872" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I872" s="11"/>
+      <c r="I872" s="9"/>
     </row>
     <row r="873" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I873" s="11"/>
+      <c r="I873" s="9"/>
     </row>
     <row r="874" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I874" s="11"/>
+      <c r="I874" s="9"/>
     </row>
     <row r="875" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I875" s="11"/>
+      <c r="I875" s="9"/>
     </row>
     <row r="876" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I876" s="11"/>
+      <c r="I876" s="9"/>
     </row>
     <row r="877" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I877" s="11"/>
+      <c r="I877" s="9"/>
     </row>
     <row r="878" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I878" s="11"/>
+      <c r="I878" s="9"/>
     </row>
     <row r="879" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I879" s="11"/>
+      <c r="I879" s="9"/>
     </row>
     <row r="880" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I880" s="11"/>
+      <c r="I880" s="9"/>
     </row>
     <row r="881" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I881" s="11"/>
+      <c r="I881" s="9"/>
     </row>
     <row r="882" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I882" s="11"/>
+      <c r="I882" s="9"/>
     </row>
     <row r="883" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I883" s="11"/>
+      <c r="I883" s="9"/>
     </row>
     <row r="884" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I884" s="11"/>
+      <c r="I884" s="9"/>
     </row>
     <row r="885" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I885" s="11"/>
+      <c r="I885" s="9"/>
     </row>
     <row r="886" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I886" s="11"/>
+      <c r="I886" s="9"/>
     </row>
     <row r="887" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I887" s="11"/>
+      <c r="I887" s="9"/>
     </row>
     <row r="888" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I888" s="11"/>
+      <c r="I888" s="9"/>
     </row>
     <row r="889" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I889" s="11"/>
+      <c r="I889" s="9"/>
     </row>
     <row r="890" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I890" s="11"/>
+      <c r="I890" s="9"/>
     </row>
     <row r="891" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I891" s="11"/>
+      <c r="I891" s="9"/>
     </row>
     <row r="892" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I892" s="11"/>
+      <c r="I892" s="9"/>
     </row>
     <row r="893" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I893" s="11"/>
+      <c r="I893" s="9"/>
     </row>
     <row r="894" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I894" s="11"/>
+      <c r="I894" s="9"/>
     </row>
     <row r="895" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I895" s="11"/>
+      <c r="I895" s="9"/>
     </row>
     <row r="896" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I896" s="11"/>
+      <c r="I896" s="9"/>
     </row>
     <row r="897" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I897" s="11"/>
+      <c r="I897" s="9"/>
     </row>
     <row r="898" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I898" s="11"/>
+      <c r="I898" s="9"/>
     </row>
     <row r="899" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I899" s="11"/>
+      <c r="I899" s="9"/>
     </row>
     <row r="900" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I900" s="11"/>
+      <c r="I900" s="9"/>
     </row>
     <row r="901" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I901" s="11"/>
+      <c r="I901" s="9"/>
     </row>
     <row r="902" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I902" s="11"/>
+      <c r="I902" s="9"/>
     </row>
     <row r="903" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I903" s="11"/>
+      <c r="I903" s="9"/>
     </row>
     <row r="904" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I904" s="11"/>
+      <c r="I904" s="9"/>
     </row>
     <row r="905" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I905" s="11"/>
+      <c r="I905" s="9"/>
     </row>
     <row r="906" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I906" s="11"/>
+      <c r="I906" s="9"/>
     </row>
     <row r="907" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I907" s="11"/>
+      <c r="I907" s="9"/>
     </row>
     <row r="908" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I908" s="11"/>
+      <c r="I908" s="9"/>
     </row>
     <row r="909" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I909" s="11"/>
+      <c r="I909" s="9"/>
     </row>
     <row r="910" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I910" s="11"/>
+      <c r="I910" s="9"/>
     </row>
     <row r="911" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I911" s="11"/>
+      <c r="I911" s="9"/>
     </row>
     <row r="912" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I912" s="11"/>
+      <c r="I912" s="9"/>
     </row>
     <row r="913" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I913" s="11"/>
+      <c r="I913" s="9"/>
     </row>
     <row r="914" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I914" s="11"/>
+      <c r="I914" s="9"/>
     </row>
     <row r="915" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I915" s="11"/>
+      <c r="I915" s="9"/>
     </row>
     <row r="916" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I916" s="11"/>
+      <c r="I916" s="9"/>
     </row>
     <row r="917" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I917" s="11"/>
+      <c r="I917" s="9"/>
     </row>
     <row r="918" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I918" s="11"/>
+      <c r="I918" s="9"/>
     </row>
     <row r="919" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I919" s="11"/>
+      <c r="I919" s="9"/>
     </row>
     <row r="920" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I920" s="11"/>
+      <c r="I920" s="9"/>
     </row>
     <row r="921" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I921" s="11"/>
+      <c r="I921" s="9"/>
     </row>
     <row r="922" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I922" s="11"/>
+      <c r="I922" s="9"/>
     </row>
     <row r="923" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I923" s="11"/>
+      <c r="I923" s="9"/>
     </row>
     <row r="924" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I924" s="11"/>
+      <c r="I924" s="9"/>
     </row>
     <row r="925" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I925" s="11"/>
+      <c r="I925" s="9"/>
     </row>
     <row r="926" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I926" s="11"/>
+      <c r="I926" s="9"/>
     </row>
     <row r="927" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I927" s="11"/>
+      <c r="I927" s="9"/>
     </row>
     <row r="928" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I928" s="11"/>
+      <c r="I928" s="9"/>
     </row>
     <row r="929" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I929" s="11"/>
+      <c r="I929" s="9"/>
     </row>
     <row r="930" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I930" s="11"/>
+      <c r="I930" s="9"/>
     </row>
     <row r="931" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I931" s="11"/>
+      <c r="I931" s="9"/>
     </row>
     <row r="932" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I932" s="11"/>
+      <c r="I932" s="9"/>
     </row>
     <row r="933" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I933" s="11"/>
+      <c r="I933" s="9"/>
     </row>
     <row r="934" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I934" s="11"/>
+      <c r="I934" s="9"/>
     </row>
     <row r="935" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I935" s="11"/>
+      <c r="I935" s="9"/>
     </row>
     <row r="936" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I936" s="11"/>
+      <c r="I936" s="9"/>
     </row>
     <row r="937" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I937" s="11"/>
+      <c r="I937" s="9"/>
     </row>
     <row r="938" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I938" s="11"/>
+      <c r="I938" s="9"/>
     </row>
     <row r="939" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I939" s="11"/>
+      <c r="I939" s="9"/>
     </row>
     <row r="940" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I940" s="11"/>
+      <c r="I940" s="9"/>
     </row>
     <row r="941" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I941" s="11"/>
+      <c r="I941" s="9"/>
     </row>
     <row r="942" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I942" s="11"/>
+      <c r="I942" s="9"/>
     </row>
     <row r="943" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I943" s="11"/>
+      <c r="I943" s="9"/>
     </row>
     <row r="944" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I944" s="11"/>
+      <c r="I944" s="9"/>
     </row>
     <row r="945" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I945" s="11"/>
+      <c r="I945" s="9"/>
     </row>
     <row r="946" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I946" s="11"/>
+      <c r="I946" s="9"/>
     </row>
     <row r="947" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I947" s="11"/>
+      <c r="I947" s="9"/>
     </row>
     <row r="948" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I948" s="11"/>
+      <c r="I948" s="9"/>
     </row>
     <row r="949" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I949" s="11"/>
+      <c r="I949" s="9"/>
     </row>
     <row r="950" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I950" s="11"/>
+      <c r="I950" s="9"/>
     </row>
     <row r="951" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I951" s="11"/>
+      <c r="I951" s="9"/>
     </row>
     <row r="952" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I952" s="11"/>
+      <c r="I952" s="9"/>
     </row>
     <row r="953" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I953" s="11"/>
+      <c r="I953" s="9"/>
     </row>
     <row r="954" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I954" s="11"/>
+      <c r="I954" s="9"/>
     </row>
     <row r="955" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I955" s="11"/>
+      <c r="I955" s="9"/>
     </row>
     <row r="956" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I956" s="11"/>
+      <c r="I956" s="9"/>
     </row>
     <row r="957" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I957" s="11"/>
+      <c r="I957" s="9"/>
     </row>
     <row r="958" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I958" s="11"/>
+      <c r="I958" s="9"/>
     </row>
     <row r="959" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I959" s="11"/>
+      <c r="I959" s="9"/>
     </row>
     <row r="960" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I960" s="11"/>
+      <c r="I960" s="9"/>
     </row>
     <row r="961" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I961" s="11"/>
+      <c r="I961" s="9"/>
     </row>
     <row r="962" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I962" s="11"/>
+      <c r="I962" s="9"/>
     </row>
     <row r="963" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I963" s="11"/>
+      <c r="I963" s="9"/>
     </row>
     <row r="964" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I964" s="11"/>
+      <c r="I964" s="9"/>
     </row>
     <row r="965" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I965" s="11"/>
+      <c r="I965" s="9"/>
     </row>
     <row r="966" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I966" s="11"/>
+      <c r="I966" s="9"/>
     </row>
     <row r="967" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I967" s="11"/>
+      <c r="I967" s="9"/>
     </row>
     <row r="968" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I968" s="11"/>
+      <c r="I968" s="9"/>
     </row>
     <row r="969" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I969" s="11"/>
+      <c r="I969" s="9"/>
     </row>
     <row r="970" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I970" s="11"/>
+      <c r="I970" s="9"/>
     </row>
     <row r="971" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I971" s="11"/>
+      <c r="I971" s="9"/>
     </row>
     <row r="972" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I972" s="11"/>
+      <c r="I972" s="9"/>
     </row>
     <row r="973" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I973" s="11"/>
+      <c r="I973" s="9"/>
     </row>
     <row r="974" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I974" s="11"/>
+      <c r="I974" s="9"/>
     </row>
     <row r="975" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I975" s="11"/>
+      <c r="I975" s="9"/>
     </row>
     <row r="976" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I976" s="11"/>
+      <c r="I976" s="9"/>
     </row>
     <row r="977" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I977" s="11"/>
+      <c r="I977" s="9"/>
     </row>
     <row r="978" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I978" s="11"/>
+      <c r="I978" s="9"/>
     </row>
     <row r="979" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I979" s="11"/>
+      <c r="I979" s="9"/>
     </row>
     <row r="980" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I980" s="11"/>
+      <c r="I980" s="9"/>
     </row>
     <row r="981" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I981" s="11"/>
+      <c r="I981" s="9"/>
     </row>
     <row r="982" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I982" s="11"/>
+      <c r="I982" s="9"/>
     </row>
     <row r="983" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I983" s="11"/>
+      <c r="I983" s="9"/>
     </row>
     <row r="984" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I984" s="11"/>
+      <c r="I984" s="9"/>
     </row>
     <row r="985" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I985" s="11"/>
+      <c r="I985" s="9"/>
     </row>
     <row r="986" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I986" s="11"/>
+      <c r="I986" s="9"/>
     </row>
     <row r="987" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I987" s="11"/>
+      <c r="I987" s="9"/>
     </row>
     <row r="988" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I988" s="11"/>
+      <c r="I988" s="9"/>
     </row>
     <row r="989" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I989" s="11"/>
+      <c r="I989" s="9"/>
     </row>
     <row r="990" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I990" s="11"/>
+      <c r="I990" s="9"/>
     </row>
     <row r="991" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I991" s="11"/>
+      <c r="I991" s="9"/>
     </row>
     <row r="992" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I992" s="11"/>
+      <c r="I992" s="9"/>
     </row>
     <row r="993" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I993" s="11"/>
+      <c r="I993" s="9"/>
     </row>
     <row r="994" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I994" s="11"/>
+      <c r="I994" s="9"/>
     </row>
     <row r="995" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I995" s="11"/>
+      <c r="I995" s="9"/>
     </row>
     <row r="996" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I996" s="11"/>
+      <c r="I996" s="9"/>
     </row>
     <row r="997" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I997" s="11"/>
+      <c r="I997" s="9"/>
     </row>
     <row r="998" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I998" s="11"/>
+      <c r="I998" s="9"/>
     </row>
     <row r="999" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I999" s="11"/>
+      <c r="I999" s="9"/>
     </row>
     <row r="1000" spans="9:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="I1000" s="11"/>
+      <c r="I1000" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
